--- a/reader.xlsx
+++ b/reader.xlsx
@@ -6,8 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,33 +14,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>('http://www.landrover-yar.ru/links/menufastlinks/mobile-app/', 'Информацию о Jaguar Land Rover Boutique – бутике нашей компании в центре Москвы')</t>
-  </si>
-  <si>
-    <t>('http://www.landrover-yar.ru/links/fastlinks/news/', 'JAGUAR LAND ROVER НАЧИНАЕТ СТРОИТЕЛЬСТВО НОВОГО ИНЖЕНЕРНО-КОНСТРУКТОРСКОГО ЦЕНТРА')</t>
-  </si>
-  <si>
-    <t>('http://www.landrover-yar.ru/links/fastlinks/news/', 'Компания Jaguar Land Rover, крупнейший автопроизводитель в Великобритании, объявила о начале работ по реконструкции Инженерно-конструкторского центра в Гейдоне, Уорикшир (Gaydon, Warwickshire), общей стоимостью 200 миллионов фунтов стерлингов')</t>
-  </si>
-  <si>
-    <t>('http://www.landrover-yar.ru/links/fastlinks/news/', 'Компания Jaguar Land Rover Россия расширяет действие программы «Сервисный пакет» и предлагает возможность воспользоваться этим предложением при покупке любого автомобиля Jaguar и Land Rover в официальных дилерских центрах в России')</t>
-  </si>
-  <si>
-    <t>('http://www.landrover-yar.ru/links/fastlinks/news/', 'JAGUAR LAND ROVER РОССИЯ АНОНСИРУЕТ ЦЕНЫ НА СОВЕРШЕННО НОВЫЙ RANGE ROVER VELAR')</t>
-  </si>
-  <si>
-    <t>('http://www.landrover-yar.ru/links/fastlinks/news/', 'Компания Jaguar Land Rover Россия анонсирует цены на совершенно новый среднеразмерный роскошный внедорожник Range Rover Velar, продажи которого стартуют в России осенью 2017 года')</t>
-  </si>
-  <si>
-    <t>('http://www.landrover-yar.ru/links/fastlinks/news/', 'Jaguar Land Rover Россия представляет специальные условия покупки совершенно нового Land Rover Discovery, который в настоящее время доступен для заказа во всех официальных дилерских центрах компании и появится в продаже в мае')</t>
-  </si>
-  <si>
-    <t>('http://www.landrover-yar.ru/', 'JAGUAR LAND ROVER НАЧИНАЕТ СТРОИТЕЛЬСТВО НОВОГО ИНЖЕНЕРНО-КОНСТРУКТОРСКОГО ЦЕНТРА')</t>
-  </si>
-  <si>
-    <t>('http://www.landrover-yar.ru/', 'Компания Jaguar Land Rover, крупнейший автопроизводитель в Великобритании, объявила о начале работ по реконструкции Инженерно-конструкторского центра в Гейдоне, Уорикшир (Gaydon, Warwickshire), общей стоимостью 200 миллионов фунтов стерлингов')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/links/mobile_center_menu/contact-info/</t>
+  </si>
+  <si>
+    <t>landrover</t>
+  </si>
+  <si>
+    <t>+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/new-cars/range-rover-evoque/</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Range Rover Evoque Комплектации.Обзор.Видео.Кабриолет.Модельный ряд.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Специальные предложения.Галерея.раскрыть.Комплектации.PURE.SE.SE DYNAMIC.HSE.HSE DYNAMIC.AUTOBIOGRAPHY.Convertible HSE Dynamic.Обзор.Обзор.Видео.Кабриолет.Модельный ряд.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Специальные предложения.Галерея.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.ВЕРНУТЬСЯ В МЕНЮ.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.КОМПЛЕКТАЦИИ.PURE.SE.SE DYNAMIC.HSE.HSE DYNAMIC.AUTOBIOGRAPHY.CONVERTIBLE HSE DYNAMIC.Range Rover Evoque прошел смелую эволюцию. Это истинный Range Rover с уникальным дизайном..Gerry McGovern.Директор по дизайну и креативный директор Land Rover.уникальныЙ ДИЗАЙН.Широкий выбор цветов и вариантов отделки позволит сделать Ваш Range Rover Evoque по-настоящему уникальным воплощением Вашего стиля. Современный дизайн и эффектный силуэт гарантируют, что он не затеряется в городском потоке..КОМФОРТНЫЙ САЛОН.Кожа с декоративной двойной отстрочкой и широкий выбор вставок из дерева и алюминия позволяют создать идеальный интерьер, отражающий вкусы и предпочтения владельца. Для всех комплектаций в качестве опции доступны передние сиденья с функцией подогрева, а для комплектации HSE и HSE Dynamic — передние с функцией подогрева и охлаждения и задние с функцией подогрева. Регулируемая подсветка салона позволяет создать безупречную атмосферу..СДЕЛАЙТЕ СВОЮ ЖИЗНЬ ЯРЧЕВМЕСТЕ И INCONTROL.InControl Touch Pro — это информационно-развлекательная система Land Rover нового поколения, которая выводит качество связи и развлекательные возможности Range Rover Evoque на высочайший уровень. InControl облегчает Вашу жизнь — система помогает найти место для парковки, предусматривает потоковое воспроизведение музыки и запоминает Ваши ежедневные маршруты..ДИЗАЙН.ДИЗАЙН ЭКСТЕРЬЕРА.ДИЗАЙН, УДОСТОЕННЫЙВЫСОКИХ НАГРАД.Range Rover Evoque представлен в пятидверной версии, а также в вариантах с кузовом купе и кабриолет. Линейка автомобилей с кузовом купе предлагается для комплектаций SE Dynamic и HSE Dynamic, а пятидверная версия доступна для: Pure, SE, SE Dynamic, HSE, HSE Dynamic и Autobiography. Кабриолет Range Rover Evoque предлагается только в комплектации HSE Dynamic с тканевой крышей с Z-образной системой складывания в цвете Ebony..Конфигуратор.ДИЗАЙН ЭКСТЕРЬЕРА.RANGE ROVER EVOQUEКУПЕ.Плавные линии Range Rover Evoque купе — смелая интерпретация современного британского дизайна. Динамичный силуэт, мужественные очертания и эффектные элементы дизайна никого не оставят равнодушным..Конфигуратор.ДИЗАЙН ЭКСТЕРЬЕРА.ПАКЕТ ОПЦИЙ DYNAMIC.Пятидверная версия более практична, при этом она сохраняет мгновенно узнаваемый стиль Range Rover Evoque. Если Вы хотите покатать свою семью или друзей по городу или отвезти их в спокойное место в деревне на пикник, удобные сиденья обеспечат комфорт всех пассажиров во время поездки..Конфигуратор.1 /.RANGE ROVER EVOQUE.КАБРИОЛЕТ.С системой Z-образного складывания крыши изткани цвета Ebony возможности и стиль новогокабриолета Range Rover Evoque выходят на новыйуровень. Его характерные линии символизируютуверенность, неповторимость и самообладание, апросторный салон дает возможность пассажирамнаслаждаться комфортом открытого автомобиля..УЗНАТЬ БОЛЬШЕ.ДИЗАЙН ЭКСТЕРЬЕРА.СПЕЦИАЛЬНАЯ СЕРИЯEMBER.Эффектный контраст цвета кузова Santorini Black и крыши Firenze Red подчеркивает яркую индивидуальность автомобилей специальной серии Ember. Сиденья Ebony с эксклюзивной отстрочкой Pimento, специально разработанные для этой модели, обтянуты кожей Oxford высочайшего качества с перфорированной центральной частью..ДИЗАЙН ЭКСТЕРЬЕРА.ПАЛИТРА RANGE ROVEREVOQUE.Глубокий богатый глянец, мерцающий металлик с благородной патиной — мы используем новейшие технологии, позволяющие добиваться изумительной текстуры. Выберите цвет по своему вкусу из коллекции, в которую вошли новые оттенки премиум-металлик: Silicon Silver, Farallon Black, Carpathian Grey и Aruba..Конфигуратор.1 /.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.ПРОДУМАННАЯ КОНФИГУРАЦИЯ.Багажное отделение Range Rover Evoque отличается невероятной практичностью и стильным дизайном. В багажном отделении каждой модели достаточно места для Вашего багажа во время отдыха или спортивного снаряжения..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.КУЗОВ КУПЕ И ПЯТИДВЕРНЫЙ.Объем багажного отделения составляет 575 литров с поднятыми сиденьями в пятидверном автомобиле и 550 литров в купе. В багажном отделении обеих моделей достаточно места для багажа, необходимого для идеального отдыха в выходные или поездки за покупками..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.КАБРИОЛЕТ.Дверь багажного отделения кабриолета с продуманной конфигурацией разработана для облегчения доступа к багажному отделению. В качестве опции доступен центральный подлокотник с проемом для длинных предметов. Объем багажного отделения по-прежнему составляет 251 литр независимо от положения крыши. В нем без труда поместится стандартная сумка для клюшек для игры в гольф или детская коляска..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.ИНТЕРЬЕР.КУПЕ И ПЯТИДВЕРНЫЙВАРИАНТ.Лаконичные линии элегантного салона подчеркивают безупречное качество материалов. Создайте личное пространство: выберите по своему вкусу текстуры и цвета, кожу с двойной отстрочкой, вставки из алюминия или дерева (если доступны) и панорамную крышу, чтобы наполнить салон естественным светом..Конфигуратор.ИНТЕРЬЕР.КАБРИОЛЕТ.Дополнительные преимуществом является и то, что автомобиль четырехместный. Опциональные передние сиденья с функцией подогрева и вентиляции обеспечат непревзойденный комфорт в дороге. Элегантные линии салона изысканно гармонируют с превосходной кожей Oxford..1 /.КОМФОРТ И УДОБСТВО.ОСНАЩЕНИЕ САЛОНА.АУДИОСИСТЕМАMERIDIANTM.Аудиосистема мощностью 380 Вт благодаря оптимально расположенным 10 динамикам и сабвуферу обеспечивает исключительное качество звучания с кристально чистыми высокими и наполненными, глубокими низкими частотами..ОСНАЩЕНИЕ САЛОНА.РЕГУЛИРОВАНИЕПОДСВЕТКА САЛОНА.Создайте в салоне автомобиля особую атмосферу, выбрав один из десяти цветов регулируемой подсветки. Вы можете настроить яркость подсветки по своему вкусу, а также сделать ее едва заметной с помощью ночного режима («Stealth»)..ОСНАЩЕНИЕ САЛОНА.БОЛЬШЕ КОМФОРТА В ДОРОГЕ.Установите нужную температуру в своем Range Rover Evoque прямо сейчас. Заранее прогрейте или охладите салон автомобиля с помощью системы стояночного обогрева двигателя и салона. Также в качестве опции доступны передние сиденья с функциями подогрева и охлаждения, чтобы обеспечить непревзойденный комфорт. Передние сиденья с функцией массажа (при наличии) позволяют водителю и пассажирам передних сидений выбирать отдельные программы с помощью сенсорного экрана..ИНТЕЛЛЕКТУАЛЬНЫЙ ДОСТУП.СЕНСОРНОЕ БЕСКОНТАКТНОЕОТКРЫВАНИЕ ДВЕРИБАГАЖНИКА.Открывайте и закрывайте дверь багажника без лишних движений с помощью опционального cенсорного бесконтактного открывания двери багажника. При наличии электронного ключа для этого достаточно одного движения ногой в пространстве под задним бампером..ТЕХНОЛОГИИ.ТЕХНОЛОГИИ.СИСТЕМАINCONTROL.Наш набор передовых технологий, связывающийВас и Ваш Range Rover Evoque с внешним миром.На выбор доступны 2 уровня информационно-развлекательнойсистемы: InControl Touch и InControl Touch Pro. Эти системыможно дополнить с помощью пакетов опций InControl Connectи InControl Connect Pro, чтобы расширить свои возможностиподключения..ИННОВАЦИИ.Мы постоянно модернизируем наши технологии двигателей, используя последние инновации, такие как интеллектуальная система остановки/запуска двигателя «Стоп/Старт», которая позволяет снижать потребление топлива на 5-7 % по сравнению с двигателями предыдущих поколений. Кроме того, уменьшению расхода топлива и сокращению уровня выбросов CO2 способствует устанавливаемая на автомобилях облегченная трансмиссия..ТЕХНОЛОГИИ ДЛЯ ВОЖДЕНИЯ.Адаптивный круиз-контроль поддерживает определенную скорость в долгих путешествиях, соблюдая безопасную дистанцию до автомобиля впереди. Система адаптивного управления подвеской Adaptive Dynamics обеспечивает оптимальный баланс между плавностью хода и управляемостью автомобиля, а система динамического распределения крутящего момента на колесо гарантирует уверенное прохождение поворотов. Благодаря этим системам Вы всегда будете чувствовать себя уверенно за рулем автомобиля..ВНЕДОРОЖНЫЕ ВОЗМОЖНОСТИ.Благодаря мощи под капотом каждого автомобиля Land Rover он уверенно себя чувствует на любых поверхностях и при неблагоприятных условиях. Благодаря таким технологиям, как система адаптации к дорожным условиям Terrain Response и система контролируемого движения под уклон, Вы с легкостью преодолеете любое бездорожье..СИСТЕМЫ ПОМОЩИ ВОДИТЕЛЮ.Наши системы помощи водителю позволяют Вам сконцентрироваться на вождении благодаря эффективному мониторингу конкретных дорожных ситуаций. Например, система контроля «слепых» зон предупреждает Вас о приближении транспортных средств с любой стороны, а система камер кругового обзора включает камеры, расположенные по периметру автомобиля. Она облегчает парковку и незаменима при выполнении более сложных задач, например, при буксировке быстроходного катера или фургона для перевозки лошадей..КОМФОРТ И УДОБСТВО.Наши автомобили оснащены рядом новейших систем обогрева и охлаждения салона, обеспечивающих непревзойденный комфорт водителя и пассажиров. Независимо от погодных условий Вы прибудете в пункт назначения в спокойном состоянии и полным сил..ИНФОРМАЦИОННО-РАЗВЛЕКАТЕЛЬНАЯ СИСТЕМА.Используйте смартфон в автомобиле для доступа к различной информации и развлечениям. Если выбрать функцию двойного изображения, то спутниковая навигационная система выведет изображение дороги на 10-дюймовый сенсорный экран, в то время как пассажир на переднем сиденье сможет смотреть кинофильм на DVD. Приложения InControl Apps на смартфоне обеспечивают надежную связь водителя с автомобилем с помощью 10-дюймового сенсорного экрана. Аудиосистема Meridian™ заполняет салон музыкой..ВОЗМОЖНОСТИ.ДОПОЛНИТЕЛЬНЫЕ ВОЗМОЖНОСТИ.ALL-TERRAINPROGRESS CONTROL.Инновационная система адаптации к дорожному покрытию All-Terrain Progress Control (ATPC) позволяет водителю поддерживать стабильную скорость при езде Range Rover Evoque по бездорожью. Система действует как круиз-контроль на низкой скорости при движении передним или задним ходом по асфальту, гравию, снегу или песку..ВОЗМОЖНОСТИ.СИСТЕМА АДАПТАЦИИК ДОРОЖНЫМ УСЛОВИЯМTERRAIN RESPONSE.Система адаптации к дорожным условиям Terrain Response обеспечивает уверенное сцепление Вашего Range Rover Evoque с поверхностью в любых условиях. Присутствует в стандартной комплектации всех полноприводных автомобилей и предусматривает режимы «Обычный», «Трава / Гравий / Снег», «Грязь / Рытвины» и «Песок» для оптимального сцепления и устойчивости..ВОЗМОЖНОСТИ.СИСТЕМА ДИНАМИЧЕСКОГОРАСПРЕДЕЛЕНИЯКРУТЯЩЕГО МОМЕНТАНА КОЛЕСО.Система динамического распределения крутящего момента на колесо повышает маневренность и устойчивость Range Rover Evoque на дороге и бездорожье. Система постоянно корректирует распределение крутящего момента между колесами автомобиля, улучшая сцепление с дорогой и управляемость..ЗАПИСАТЬСЯ НА ТЕСТ-ДРАЙВ.ВОЗМОЖНОСТИ.СИСТЕМА АКТИВНОГОПОЛНОГО ПРИВОДАACTIVE DRIVELINE.Система активного полного привода Active Driveline дает преимущества как на трассе, так и на бездорожье. Для максимальной экономии топлива и снижения потерь на трение система отключает привод задних колес, когда в нем нет необходимости, и мгновенно включает его, если того требуют условия. При езде по бездорожью распределение крутящего момента корректируется в зависимости от имеющегося сцепления с поверхностью..ВОЗМОЖНОСТИ.СИСТЕМА АДАПТИВНОГОУПРАВЛЕНИЯ ПОДВЕСКОЙADAPTIVE DYNAMICS.Range Rover Evoque создан для любых дорог и погодных условий. Система адаптивного управления подвеской Adaptive Dynamics настраивает подвеску для более динамичной езды, отслеживая движения автомобиля с частотой до 1000 раз в секунду и мгновенно реагируя на действия водителя и дорожные условия для обеспечения максимальной устойчивости и плавности хода..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.1 /.ВОЗМОЖНОСТИ.СПРАВИТСЯ СЛЮБЫМ ГРУЗОМ.В некоторых поездках требуется дополнительноеоборудование. Range Rover Evoque в кузове купеили пятидверной версии справится странспортировкой прицепа массой до 2000 кг,а в кузове кабриолет — массой до 1500 кг.В опциональную систему камер кругового обзоравходит система помощи при движении с прицепом,которая упрощает движение задним ходом, указываяпрогнозируемую траекторию движения прицепа..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.ИСПЫТАНИЯ НА ГРАНИ.ПОДВЕСКА.Сложно придумать для Range Rover Evoque более суровые испытания, чем те, которым подвергли его мы. Чтобы гарантировать непревзойденные динамические возможности Range Rover Evoque на дороге и бездорожье, он испытывался на самом современном оборудовании и успешно выдержал нагрузку, аналогичную десятилетней эксплуатации..СО СКОРОСТЬЮ ВЕТРА.В наших климатических камерах мы воссоздаем самые мощные воздушные потоки, с которыми только может столкнуться Range Rover Evoque. Помимо бури со скоростью ветра до 240 км/ч автомобиль тестируется в условиях высокой температуры окружающей среды и низкой циркуляции воздуха. Только испытания систем и механизмов на пределе их возможностей могут быть гарантией их надежности..ЭКСТРЕМАЛЬНЫЕ ТЕМПЕРАТУРЫ.Где бы ни оказались наши автомобили, в условиях лютого мороза или изнуряющей жары, все их системы и узлы должны работать так же хорошо, как и всегда. Поэтому в наших климатических камерах мы проводим испытания при температуре от -40°C до +50°C. Поэтому даже в самых отдаленных горах или в пустыне Вы всегда на связи и окружены комфортом..БЕЗДОРОЖЬЕ.На покрытых льдом полигонах шведского Арьеплуга, в неумолимых песках пустыни в Дубае, — где бы Вы ни оказались, мы гарантируем, что каждый автомобиль Land Rover продемонстрирует Вам свои легендарные внедорожные возможности. Прототип каждой модели проходит испытания на сложнейших внедорожных маршрутах длиной порядка 8500 км..Конфигуратор.ХОДОВЫЕ ХАРАКТЕРИСТИКИ.ДВИГАТЕЛИ.ДИЗЕЛЬНЫЕ ДВИГАТЕЛИINGENIUM.На Range Rover Evoque устанавливаются 2-литровые двигатели Ingenium мощностью 150 или 180 л. с., отличающиеся усовершенствованной производительностью и высокой эффективностью. Передовые технологии и полностью алюминиевая конструкция способствуют значительному уменьшению расхода топлива и понижению уровня выбросов CO2.ОБЗОР КОМПЛЕКТАЦИЙ.ТРАНСМИССИЯ.9-СТУПЕНЧАТАЯАВТОМАТИЧЕСКАЯТРАНСМИССИЯ.Облегченная 9-ступенчатая автоматическая трансмиссия обеспечивает оптимальные показатели расхода топлива и выбросов CO2, а также еще больший контроль над ситуацией при движении по скользкому покрытию. Она отличается исключительной прочностью и надежностью, превосходно дополняет внедорожные качества автомобиля Land Rover и демонстрирует при этом высокий уровень технического совершенства и эффективности..КОНФИГУРАТОР.УСТОЙЧИВОЕ РАЗВИТИЕ.Экологичность Range Rover Evoque — результат комплексных усилий по сокращению воздействия на окружающую среду на протяжении всего жизненного цикла автомобиля..УСОВЕРШЕНСТВОВАННЫЕ ЛЕГКИЕ МАТЕРИАЛЫ.Благодаря широкому использованию облегченных материалов (включая магниевую поперечную балку и алюминиевый капот) Range Rover Evoque является самым легким на сегодняшний день автомобилем Range Rover. Снижен вес даже ламинированного лобового стекла для оптимизации расхода топлива и улучшения ходовых качеств..СИСТЕМА «СТОП/СТАРТ».Все двигатели оснащены интеллектуальной системой «Стоп/Старт», благодаря которой двигатель автоматически выключается во время остановки и возобновляет работу, как только водитель отпускает педаль тормоза или выжимает педаль сцепления в автомобиле с механической трансмиссией. Благодаря этому сокращается расход топлива и снижаются выбросы CO2..ОПЦИИ ИАКСЕССУАРЫ.Персонализируйте Ваш Range Rover Evoque спомощью линейки стильных, практичныхаксессуаров, по‑настоящему надежных иуниверсальных, позволяющих раскрытьВаш характер. Важно отметить, что любойаксессуар можно приобрести вместе савтомобилем или в любое время после егопокупки..СМОТРЕТЬ ОПЦИИ И АКСЕССУАРЫ.Новый Range Rover Evoque.Представляем новый Range Rover Evoque 2017 – внедорожник, призванный стать идеальным спутником городского жителя в ежедневных поездках и длительных путешествиях. Элегантные линии кузова с яркими акцентами производят впечатление, а потрясающая динамика и широкие возможности в условиях бездорожья не оставляют равнодушным..Впечатляющий облик Range Rover Evoque.В салонах официального дилера Land Rover в Москве РОЛЬФ Ясенево к продаже представлен Лэнд Ровер Эвок в трех типах кузова: вместительная и удобная пятидверная версия, стильное купе с узнаваемым плавным силуэтом и эффектный кабриолет с Z-образным сложением крыши. Вам доступны широкие возможности персонализации автомобиля, в том числе контрастная отделка крыши и кузовных элементов и эксклюзивная палитра премиум-металлик..Динамику и решительный характер внедорожника подчеркивает снижающаяся линия крыши, габаритные колесные арки и зауженная форма передних светодиодных фар. Яркий акцент в экстерьер вносит подсветка дверей, проектирующая название модели на дорожную поверхность..Купить Рендж Ровер Эвок – значит, лично ощутить беспрецедентный комфорт и эстетическое удовольствие от продуманного роскошного салона с эргономичными сиденьями. В создании уютного пространства для комфортных поездок использованы высококлассные материалы: кожи различных текстур, оригинальные двойные отстрочки, деревянные и металлические вставки. Используйте возможности регулируемой салонной подсветки и возможности доступной опционально панорамной крыши для создания особенной атмосферы в салоне авто..Инновационные технологии Land Rover.Сочетающий в себе лучшие черты городского автомобиля и безграничные возможности в суровых дорожных условиях, новый Рендж Ровер Эвок обладает впечатляющими техническими характеристиками:.Плавный ход и уверенную динамику движения обеспечивает инновационный экономичный мотор и 9-ступенчатая АКПП;.Стройте сложные маршруты, не опасаясь переутомления в длительных путешествиях: системы адаптивного круиз-контроля и управления подвеской обеспечат безопасную дистанцию, постоянную скорость и уверенное сцепление с дорогой;.Ощущайте поддержку интеллектуальных систем помощи водителю и смело бросайте вызов бездорожью. Автоматическая система полного привода в сочетании с системой адаптации к особенностям дорожного полотна помогут преодолеть любую преграду: снег, грязь и водные препятствия..Цена Рендж Ровер Эвок в Москве.Стильный внедорожник уже представлен в салонах официального дилера LR РРОЛЬФ Ясенево по выгодной цене. К продаже доступны все.комплектации Рендж Ровер Эвок.– базовая.Pure., оптимальные.SE.и.HSE., роскошная.Autobiography., – с возможностью выбора цвета кузова, материалов внутренней отделки и дополнительных опций. Покупая автомобиль у нас, вы получаете доступ к привилегированному сервисному обслуживанию, оригинальным аксессуарам и уникальным финансовым программам. Ответственный подход к каждому заказу, официальные поставки и безупречный сервис – главные принципы нашей работы..КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/links/menufastlinks/loyalty-program/</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Обзор.Программа лояльности РОЛЬФ Премиум.Кинотеатр РОЛЬФ Премиум.Специальные программы.Кредитование.Страхование.Кредитный калькулятор.раскрыть.Программа лояльности.Мир привилегий Land Rover.ПРОГРАММА ЛОЯЛЬНОСТИ.Компания Land Rover продолжает развивать программу лояльности для своих Клиентов, предоставляя приверженцам марок Land Rover и Jaguar дополнительные льготы и привилегии..Цель программы – предоставить особые условия покупки и обслуживания частным Клиентам, которые в течение 36 месяцев приобрели три или более новых автомобилей марок Land Rover и/или Jaguar.В этом случае при покупке третьего и всех последующих автомобилей действует система скидок*, размер которых зависит от количества приобретаемых автомобилей.Кроме того, программой предоставляется пакет услуг, в которых индивидуальный подход сочетается с целым рядом льгот в области обслуживания.Стать участником программы можно при покупке трех и более автомобилей в течение 36 месяцев. Программа лояльности поддерживается уполномоченными официальными дилерами Land Rover в России, Беларуси и Казахстане..МИР ПРИВИЛЕГИЙ LAND ROVER.Узнайте подробности.ПЕРСОНАЛЬНЫЙ КАБИНЕТ.узнайте подробности.КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.программа помощи на дорогах.TRADE IN.программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.программа помощи на дорогах.TRADE IN.программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.программа лояльности.КОНТАКТЫ.landrover.ru.Range Rover Evoque Комплектации.Обзор.Видео.Кабриолет.Модельный ряд.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Специальные предложения.Галерея.раскрыть.Комплектации.PURE.SE.SE DYNAMIC.HSE.HSE DYNAMIC.AUTOBIOGRAPHY.Convertible HSE Dynamic.Обзор.Обзор.Видео.Кабриолет.Модельный ряд.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Специальные предложения.Галерея.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.ВЕРНУТЬСЯ В МЕНЮ.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.КОМПЛЕКТАЦИИ.PURE.SE.SE DYNAMIC.HSE.HSE DYNAMIC.AUTOBIOGRAPHY.CONVERTIBLE HSE DYNAMIC.Range Rover Evoque прошел смелую эволюцию. Это истинный Range Rover с уникальным дизайном..Gerry McGovern.Директор по дизайну и креативный директор Land Rover.уникальныЙ ДИЗАЙН.Широкий выбор цветов и вариантов отделки позволит сделать Ваш Range Rover Evoque по-настоящему уникальным воплощением Вашего стиля. Современный дизайн и эффектный силуэт гарантируют, что он не затеряется в городском потоке..КОМФОРТНЫЙ САЛОН.Кожа с декоративной двойной отстрочкой и широкий выбор вставок из дерева и алюминия позволяют создать идеальный интерьер, отражающий вкусы и предпочтения владельца. Для всех комплектаций в качестве опции доступны передние сиденья с функцией подогрева, а для комплектации HSE и HSE Dynamic — передние с функцией подогрева и охлаждения и задние с функцией подогрева. Регулируемая подсветка салона позволяет создать безупречную атмосферу..СДЕЛАЙТЕ СВОЮ ЖИЗНЬ ЯРЧЕВМЕСТЕ И INCONTROL.InControl Touch Pro — это информационно-развлекательная система Land Rover нового поколения, которая выводит качество связи и развлекательные возможности Range Rover Evoque на высочайший уровень. InControl облегчает Вашу жизнь — система помогает найти место для парковки, предусматривает потоковое воспроизведение музыки и запоминает Ваши ежедневные маршруты..ДИЗАЙН.ДИЗАЙН ЭКСТЕРЬЕРА.ДИЗАЙН, УДОСТОЕННЫЙВЫСОКИХ НАГРАД.Range Rover Evoque представлен в пятидверной версии, а также в вариантах с кузовом купе и кабриолет. Линейка автомобилей с кузовом купе предлагается для комплектаций SE Dynamic и HSE Dynamic, а пятидверная версия доступна для: Pure, SE, SE Dynamic, HSE, HSE Dynamic и Autobiography. Кабриолет Range Rover Evoque предлагается только в комплектации HSE Dynamic с тканевой крышей с Z-образной системой складывания в цвете Ebony..Конфигуратор.ДИЗАЙН ЭКСТЕРЬЕРА.RANGE ROVER EVOQUEКУПЕ.Плавные линии Range Rover Evoque купе — смелая интерпретация современного британского дизайна. Динамичный силуэт, мужественные очертания и эффектные элементы дизайна никого не оставят равнодушным..Конфигуратор.ДИЗАЙН ЭКСТЕРЬЕРА.ПАКЕТ ОПЦИЙ DYNAMIC.Пятидверная версия более практична, при этом она сохраняет мгновенно узнаваемый стиль Range Rover Evoque. Если Вы хотите покатать свою семью или друзей по городу или отвезти их в спокойное место в деревне на пикник, удобные сиденья обеспечат комфорт всех пассажиров во время поездки..Конфигуратор.1 /.RANGE ROVER EVOQUE.КАБРИОЛЕТ.С системой Z-образного складывания крыши изткани цвета Ebony возможности и стиль новогокабриолета Range Rover Evoque выходят на новыйуровень. Его характерные линии символизируютуверенность, неповторимость и самообладание, апросторный салон дает возможность пассажирамнаслаждаться комфортом открытого автомобиля..УЗНАТЬ БОЛЬШЕ.ДИЗАЙН ЭКСТЕРЬЕРА.СПЕЦИАЛЬНАЯ СЕРИЯEMBER.Эффектный контраст цвета кузова Santorini Black и крыши Firenze Red подчеркивает яркую индивидуальность автомобилей специальной серии Ember. Сиденья Ebony с эксклюзивной отстрочкой Pimento, специально разработанные для этой модели, обтянуты кожей Oxford высочайшего качества с перфорированной центральной частью..ДИЗАЙН ЭКСТЕРЬЕРА.ПАЛИТРА RANGE ROVEREVOQUE.Глубокий богатый глянец, мерцающий металлик с благородной патиной — мы используем новейшие технологии, позволяющие добиваться изумительной текстуры. Выберите цвет по своему вкусу из коллекции, в которую вошли новые оттенки премиум-металлик: Silicon Silver, Farallon Black, Carpathian Grey и Aruba..Конфигуратор.1 /.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.ПРОДУМАННАЯ КОНФИГУРАЦИЯ.Багажное отделение Range Rover Evoque отличается невероятной практичностью и стильным дизайном. В багажном отделении каждой модели достаточно места для Вашего багажа во время отдыха или спортивного снаряжения..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.КУЗОВ КУПЕ И ПЯТИДВЕРНЫЙ.Объем багажного отделения составляет 575 литров с поднятыми сиденьями в пятидверном автомобиле и 550 литров в купе. В багажном отделении обеих моделей достаточно места для багажа, необходимого для идеального отдыха в выходные или поездки за покупками..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.КАБРИОЛЕТ.Дверь багажного отделения кабриолета с продуманной конфигурацией разработана для облегчения доступа к багажному отделению. В качестве опции доступен центральный подлокотник с проемом для длинных предметов. Объем багажного отделения по-прежнему составляет 251 литр независимо от положения крыши. В нем без труда поместится стандартная сумка для клюшек для игры в гольф или детская коляска..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.ИНТЕРЬЕР.КУПЕ И ПЯТИДВЕРНЫЙВАРИАНТ.Лаконичные линии элегантного салона подчеркивают безупречное качество материалов. Создайте личное пространство: выберите по своему вкусу текстуры и цвета, кожу с двойной отстрочкой, вставки из алюминия или дерева (если доступны) и панорамную крышу, чтобы наполнить салон естественным светом..Конфигуратор.ИНТЕРЬЕР.КАБРИОЛЕТ.Дополнительные преимуществом является и то, что автомобиль четырехместный. Опциональные передние сиденья с функцией подогрева и вентиляции обеспечат непревзойденный комфорт в дороге. Элегантные линии салона изысканно гармонируют с превосходной кожей Oxford..1 /.КОМФОРТ И УДОБСТВО.ОСНАЩЕНИЕ САЛОНА.АУДИОСИСТЕМАMERIDIANTM.Аудиосистема мощностью 380 Вт благодаря оптимально расположенным 10 динамикам и сабвуферу обеспечивает исключительное качество звучания с кристально чистыми высокими и наполненными, глубокими низкими частотами..ОСНАЩЕНИЕ САЛОНА.РЕГУЛИРОВАНИЕПОДСВЕТКА САЛОНА.Создайте в салоне автомобиля особую атмосферу, выбрав один из десяти цветов регулируемой подсветки. Вы можете настроить яркость подсветки по своему вкусу, а также сделать ее едва заметной с помощью ночного режима («Stealth»)..ОСНАЩЕНИЕ САЛОНА.БОЛЬШЕ КОМФОРТА В ДОРОГЕ.Установите нужную температуру в своем Range Rover Evoque прямо сейчас. Заранее прогрейте или охладите салон автомобиля с помощью системы стояночного обогрева двигателя и салона. Также в качестве опции доступны передние сиденья с функциями подогрева и охлаждения, чтобы обеспечить непревзойденный комфорт. Передние сиденья с функцией массажа (при наличии) позволяют водителю и пассажирам передних сидений выбирать отдельные программы с помощью сенсорного экрана..ИНТЕЛЛЕКТУАЛЬНЫЙ ДОСТУП.СЕНСОРНОЕ БЕСКОНТАКТНОЕОТКРЫВАНИЕ ДВЕРИБАГАЖНИКА.Открывайте и закрывайте дверь багажника без лишних движений с помощью опционального cенсорного бесконтактного открывания двери багажника. При наличии электронного ключа для этого достаточно одного движения ногой в пространстве под задним бампером..ТЕХНОЛОГИИ.ТЕХНОЛОГИИ.СИСТЕМАINCONTROL.Наш набор передовых технологий, связывающийВас и Ваш Range Rover Evoque с внешним миром.На выбор доступны 2 уровня информационно-развлекательнойсистемы: InControl Touch и InControl Touch Pro. Эти системыможно дополнить с помощью пакетов опций InControl Connectи InControl Connect Pro, чтобы расширить свои возможностиподключения..ИННОВАЦИИ.Мы постоянно модернизируем наши технологии двигателей, используя последние инновации, такие как интеллектуальная система остановки/запуска двигателя «Стоп/Старт», которая позволяет снижать потребление топлива на 5-7 % по сравнению с двигателями предыдущих поколений. Кроме того, уменьшению расхода топлива и сокращению уровня выбросов CO2 способствует устанавливаемая на автомобилях облегченная трансмиссия..ТЕХНОЛОГИИ ДЛЯ ВОЖДЕНИЯ.Адаптивный круиз-контроль поддерживает определенную скорость в долгих путешествиях, соблюдая безопасную дистанцию до автомобиля впереди. Система адаптивного управления подвеской Adaptive Dynamics обеспечивает оптимальный баланс между плавностью хода и управляемостью автомобиля, а система динамического распределения крутящего момента на колесо гарантирует уверенное прохождение поворотов. Благодаря этим системам Вы всегда будете чувствовать себя уверенно за рулем автомобиля..ВНЕДОРОЖНЫЕ ВОЗМОЖНОСТИ.Благодаря мощи под капотом каждого автомобиля Land Rover он уверенно себя чувствует на любых поверхностях и при неблагоприятных условиях. Благодаря таким технологиям, как система адаптации к дорожным условиям Terrain Response и система контролируемого движения под уклон, Вы с легкостью преодолеете любое бездорожье..СИСТЕМЫ ПОМОЩИ ВОДИТЕЛЮ.Наши системы помощи водителю позволяют Вам сконцентрироваться на вождении благодаря эффективному мониторингу конкретных дорожных ситуаций. Например, система контроля «слепых» зон предупреждает Вас о приближении транспортных средств с любой стороны, а система камер кругового обзора включает камеры, расположенные по периметру автомобиля. Она облегчает парковку и незаменима при выполнении более сложных задач, например, при буксировке быстроходного катера или фургона для перевозки лошадей..КОМФОРТ И УДОБСТВО.Наши автомобили оснащены рядом новейших систем обогрева и охлаждения салона, обеспечивающих непревзойденный комфорт водителя и пассажиров. Независимо от погодных условий Вы прибудете в пункт назначения в спокойном состоянии и полным сил..ИНФОРМАЦИОННО-РАЗВЛЕКАТЕЛЬНАЯ СИСТЕМА.Используйте смартфон в автомобиле для доступа к различной информации и развлечениям. Если выбрать функцию двойного изображения, то спутниковая навигационная система выведет изображение дороги на 10-дюймовый сенсорный экран, в то время как пассажир на переднем сиденье сможет смотреть кинофильм на DVD. Приложения InControl Apps на смартфоне обеспечивают надежную связь водителя с автомобилем с помощью 10-дюймового сенсорного экрана. Аудиосистема Meridian™ заполняет салон музыкой..ВОЗМОЖНОСТИ.ДОПОЛНИТЕЛЬНЫЕ ВОЗМОЖНОСТИ.ALL-TERRAINPROGRESS CONTROL.Инновационная система адаптации к дорожному покрытию All-Terrain Progress Control (ATPC) позволяет водителю поддерживать стабильную скорость при езде Range Rover Evoque по бездорожью. Система действует как круиз-контроль на низкой скорости при движении передним или задним ходом по асфальту, гравию, снегу или песку..ВОЗМОЖНОСТИ.СИСТЕМА АДАПТАЦИИК ДОРОЖНЫМ условиЯМTERRAIN RESPONSE.Система адаптации к дорожным условиям Terrain Response обеспечивает уверенное сцепление Вашего Range Rover Evoque с поверхностью в любых условиях. Присутствует в стандартной комплектации всех полноприводных автомобилей и предусматривает режимы «Обычный», «Трава / Гравий / Снег», «Грязь / Рытвины» и «Песок» для оптимального сцепления и устойчивости..ВОЗМОЖНОСТИ.СИСТЕМА ДИНАМИЧЕСКОГОРАСПРЕДЕЛЕНИЯКРУТЯЩЕГО МОМЕНТАНА КОЛЕСО.Система динамического распределения крутящего момента на колесо повышает маневренность и устойчивость Range Rover Evoque на дороге и бездорожье. Система постоянно корректирует распределение крутящего момента между колесами автомобиля, улучшая сцепление с дорогой и управляемость..ЗАПИСАТЬСЯ НА ТЕСТ-ДРАЙВ.ВОЗМОЖНОСТИ.СИСТЕМА АКТИВНОГОПОЛНОГО ПРИВОДАACTIVE DRIVELINE.Система активного полного привода Active Driveline дает преимущества как на трассе, так и на бездорожье. Для максимальной экономии топлива и снижения потерь на трение система отключает привод задних колес, когда в нем нет необходимости, и мгновенно включает его, если того требуют условия. При езде по бездорожью распределение крутящего момента корректируется в зависимости от имеющегося сцепления с поверхностью..ВОЗМОЖНОСТИ.СИСТЕМА АДАПТИВНОГОУПРАВЛЕНИЯ ПОДВЕСКОЙADAPTIVE DYNAMICS.Range Rover Evoque создан для любых дорог и погодных условий. Система адаптивного управления подвеской Adaptive Dynamics настраивает подвеску для более динамичной езды, отслеживая движения автомобиля с частотой до 1000 раз в секунду и мгновенно реагируя на действия водителя и дорожные условия для обеспечения максимальной устойчивости и плавности хода..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.1 /.ВОЗМОЖНОСТИ.СПРАВИТСЯ СЛЮБЫМ ГРУЗОМ.В некоторых поездках требуется дополнительноеоборудование. Range Rover Evoque в кузове купеили пятидверной версии справится странспортировкой прицепа массой до 2000 кг,а в кузове кабриолет — массой до 1500 кг.В опциональную систему камер кругового обзоравходит система помощи при движении с прицепом,которая упрощает движение задним ходом, указываяпрогнозируемую траекторию движения прицепа..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.ИСПЫТАНИЯ НА ГРАНИ.ПОДВЕСКА.Сложно придумать для Range Rover Evoque более суровые испытания, чем те, которым подвергли его мы. Чтобы гарантировать непревзойденные динамические возможности Range Rover Evoque на дороге и бездорожье, он испытывался на самом современном оборудовании и успешно выдержал нагрузку, аналогичную десятилетней эксплуатации..СО СКОРОСТЬЮ ВЕТРА.В наших климатических камерах мы воссоздаем самые мощные воздушные потоки, с которыми только может столкнуться Range Rover Evoque. Помимо бури со скоростью ветра до 240 км/ч автомобиль тестируется в условиях высокой температуры окружающей среды и низкой циркуляции воздуха. Только испытания систем и механизмов на пределе их возможностей могут быть гарантией их надежности..ЭКСТРЕМАЛЬНЫЕ ТЕМПЕРАТУРЫ.Где бы ни оказались наши автомобили, в условиях лютого мороза или изнуряющей жары, все их системы и узлы должны работать так же хорошо, как и всегда. Поэтому в наших климатических камерах мы проводим испытания при температуре от -40°C до +50°C. Поэтому даже в самых отдаленных горах или в пустыне Вы всегда на связи и окружены комфортом..БЕЗДОРОЖЬЕ.На покрытых льдом полигонах шведского Арьеплуга, в неумолимых песках пустыни в Дубае, — где бы Вы ни оказались, мы гарантируем, что каждый автомобиль Land Rover продемонстрирует Вам свои легендарные внедорожные возможности. Прототип каждой модели проходит испытания на сложнейших внедорожных маршрутах длиной порядка 8500 км..Конфигуратор.ХОДОВЫЕ ХАРАКТЕРИСТИКИ.ДВИГАТЕЛИ.ДИЗЕЛЬНЫЕ ДВИГАТЕЛИINGENIUM.На Range Rover Evoque устанавливаются 2-литровые двигатели Ingenium мощностью 150 или 180 л. с., отличающиеся усовершенствованной производительностью и высокой эффективностью. Передовые технологии и полностью алюминиевая конструкция способствуют значительному уменьшению расхода топлива и понижению уровня выбросов CO2.ОБЗОР КОМПЛЕКТАЦИЙ.ТРАНСМИССИЯ.9-СТУПЕНЧАТАЯАВТОМАТИЧЕСКАЯТРАНСМИССИЯ.Облегченная 9-ступенчатая автоматическая трансмиссия обеспечивает оптимальные показатели расхода топлива и выбросов CO2, а также еще больший контроль над ситуацией при движении по скользкому покрытию. Она отличается исключительной прочностью и надежностью, превосходно дополняет внедорожные качества автомобиля Land Rover и демонстрирует при этом высокий уровень технического совершенства и эффективности..КОНФИГУРАТОР.УСТОЙЧИВОЕ РАЗВИТИЕ.Экологичность Range Rover Evoque — результат комплексных усилий по сокращению воздействия на окружающую среду на протяжении всего жизненного цикла автомобиля..УСОВЕРШЕНСТВОВАННЫЕ ЛЕГКИЕ МАТЕРИАЛЫ.Благодаря широкому использованию облегченных материалов (включая магниевую поперечную балку и алюминиевый капот) Range Rover Evoque является самым легким на сегодняшний день автомобилем Range Rover. Снижен вес даже ламинированного лобового стекла для оптимизации расхода топлива и улучшения ходовых качеств..СИСТЕМА «СТОП/СТАРТ».Все двигатели оснащены интеллектуальной системой «Стоп/Старт», благодаря которой двигатель автоматически выключается во время остановки и возобновляет работу, как только водитель отпускает педаль тормоза или выжимает педаль сцепления в автомобиле с механической трансмиссией. Благодаря этому сокращается расход топлива и снижаются выбросы CO2..ОПЦИИ ИАКСЕССУАРЫ.Персонализируйте Ваш Range Rover Evoque спомощью линейки стильных, практичныхаксессуаров, по‑настоящему надежных иуниверсальных, позволяющих раскрытьВаш характер. Важно отметить, что любойаксессуар можно приобрести вместе савтомобилем или в любое время после егопокупки..СМОТРЕТЬ ОПЦИИ И АКСЕССУАРЫ.Новый Range Rover Evoque.Представляем новый Range Rover Evoque 2017 – внедорожник, призванный стать идеальным спутником городского жителя в ежедневных поездках и длительных путешествиях. Элегантные линии кузова с яркими акцентами производят впечатление, а потрясающая динамика и широкие возможности в условиях бездорожья не оставляют равнодушным..Впечатляющий облик Range Rover Evoque.В салонах официального дилера Land Rover в Москве РОЛЬФ Ясенево к продаже представлен Лэнд Ровер Эвок в трех типах кузова: вместительная и удобная пятидверная версия, стильное купе с узнаваемым плавным силуэтом и эффектный кабриолет с Z-образным сложением крыши. Вам доступны широкие возможности персонализации автомобиля, в том числе контрастная отделка крыши и кузовных элементов и эксклюзивная палитра премиум-металлик..Динамику и решительный характер внедорожника подчеркивает снижающаяся линия крыши, габаритные колесные арки и зауженная форма передних светодиодных фар. Яркий акцент в экстерьер вносит подсветка дверей, проектирующая название модели на дорожную поверхность..Купить Рендж Ровер Эвок – значит, лично ощутить беспрецедентный комфорт и эстетическое удовольствие от продуманного роскошного салона с эргономичными сиденьями. В создании уютного пространства для комфортных поездок использованы высококлассные материалы: кожи различных текстур, оригинальные двойные отстрочки, деревянные и металлические вставки. Используйте возможности регулируемой салонной подсветки и возможности доступной опционально панорамной крыши для создания особенной атмосферы в салоне авто..Инновационные технологии Land Rover.Сочетающий в себе лучшие черты городского автомобиля и безграничные возможности в суровых дорожных условиях, новый Рендж Ровер Эвок обладает впечатляющими техническими характеристиками:.Плавный ход и уверенную динамику движения обеспечивает инновационный экономичный мотор и 9-ступенчатая АКПП;.Стройте сложные маршруты, не опасаясь переутомления в длительных путешествиях: системы адаптивного круиз-контроля и управления подвеской обеспечат безопасную дистанцию, постоянную скорость и уверенное сцепление с дорогой;.Ощущайте поддержку интеллектуальных систем помощи водителю и смело бросайте вызов бездорожью. Автоматическая система полного привода в сочетании с системой адаптации к особенностям дорожного полотна помогут преодолеть любую преграду: снег, грязь и водные препятствия..Цена Рендж Ровер Эвок в Москве.Стильный внедорожник уже представлен в салонах официального дилера LR РРОЛЬФ Ясенево по выгодной цене. К продаже доступны все.комплектации Рендж Ровер Эвок.– базовая.Pure., оптимальные.SE.и.HSE., роскошная.Autobiography., – с возможностью выбора цвета кузова, материалов внутренней отделки и дополнительных опций. Покупая автомобиль у нас, вы получаете доступ к привилегированному сервисному обслуживанию, оригинальным аксессуарам и уникальным финансовым программам. Ответственный подход к каждому заказу, официальные поставки и безупречный сервис – главные принципы нашей работы..КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.программа ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.программа помощи на дорогах.TRADE IN.программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/new-cars/</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru</t>
+  </si>
+  <si>
+    <t>Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/programs/links/</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/new-cars/discovery/</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Discovery Комплектации.Обзор.Видео.Автомобили в наличии.Цены.Конфигуратор.Характеристики.Аксессуары.Брошюра.Специальные предложения.Галерея.раскрыть.Комплектации.SE.GRAPHITE.LANDMARK.HSE.Обзор.Обзор.Видео.Автомобили в наличии.Цены.Конфигуратор.Характеристики.Аксессуары.Брошюра.Специальные предложения.Галерея.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.ВЕРНУТЬСЯ В МЕНЮ.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.КОМПЛЕКТАЦИИ.SE.GRAPHITE.LANDMARK.HSE.Discovery — это идеальный автомобиль для тех, кто привык брать от жизни все и жить активно. Это один из самых роскошных, универсальных и мощных автомобилей в мире..Phil Popham.Директор по маркетингу компании Jaguar Land Rover.ДЕЛАЙТЕ ОТКРЫТИЯ УВЕРЕННО.Discovery всегда в своей стихии, едете ли Вы по городу или проводите выходные, полные приключений, за его пределами..КОМФОРТ ДЛЯ СЕМИ ВЗРОСЛЫХ.Сиденья Discovery, расположенные амфитеатром, позволяют каждому наслаждаться открывающимися видами. Широкий ряд информационно-развлекательных опций и технологий не дадут заскучать в пути, обеспечивая атмосферу комфорта..ЕЩЕ БОЛЕЕ СМЕЛЫЙ ДИЗАЙН.Легендарный целеустремленный силуэт, эффектные детали Discovery придают автомобилю невероятно современный и выразительный облик..СОЗДАН ДЛЯ ПРИКЛЮЧЕНИЙ.В Discovery сочетаются все возможности, которые Вам только могут потребоваться от автомобиля: он с комфортом перевезет Вас, шесть взрослых пассажиров, Ваш багаж, а также справится с транспортировкой прицепа массой до 3 500 кг..УНИВЕРСАЛЬНОСТЬ.НЕВЕРОЯТНЫЕ СПОСОБНОСТИ.Одно движение переключателя, и система адаптации к дорожным условиям Terrain Response  оптимизирует настройки двигателя и шасси, настройки сцепления с дорогой и разгона — все для оптимальной управляемости.  С виртуозной легкостью автомобиль преодолеет что угодно: от асфальта, травы, гравия или снега до грязи и рытвин, песка или камней..День с Land Rover Experience.ПОКАЗАТЬ ФОТОГРАФИИ.СМОТРЕТЬ ВИДЕО.УНИВЕРСАЛЬНОСТЬ.ПОГРУЗИТЬ ВЕЩИ — ЛЕГКО.Двустворчатая дверь багажного отделения Discovery и регулируемая по высоте пневмоподвеска сделают погрузку и выгрузку простым и приятным занятием вне зависимости от того, сколько у Вас багажа. Просто откройте нижнюю створку, чтобы груз не нужно было поднимать высоко..скачать брошюру.ПОКАЗАТЬ ФОТОГРАФИИ.УНИВЕРСАЛЬНОСТЬ.УЛУЧШЕННАЯ ДИНАМИКА.Путь из большого города навстречу приключениям должен приносить радость. Именно поэтому Discovery дополнен передовыми технологиями, которые помогают водителю чувствовать абсолютный контроль в любой ситуации и всегда сохранять уверенность за рулем автомобиля. Теперь каждая поездка доставит Вам удовольствие от вождения, которое не потребует усилий..Заказать тест-драйв.ПОКАЗАТЬ ФОТОГРАФИИ.УНИВЕРСАЛЬНОСТЬ.ГИБКАЯ КОМПОНОВКА ПРОСТРАНСТВА.В зависимости от выбранной Вами конфигурации сидений (2-й и 3-й ряд складываются независимо друг от друга), просторный салон Discovery подстраивается под любые Ваши задачи..Конфигуратор.ПОКАЗАТЬ ФОТОГРАФИИ.УНИВЕРСАЛЬНОСТЬ.СПРАВИТСЯ С ЛЮБЫМ ГРУЗОМ.Некоторые приключения требуют дополнительного оборудования. Discovery может буксировать до 3 500 кг, а система стабилизации прицепа помогает держать положение кузова автомобиля и подсоединенного прицепа под контролем. Доступные в качестве опции системы помогут Вам без труда присоединить прицеп, обеспечивая точность маневрирования..скачать брошюру.смотреть фотографии.1 /.ИННОВАЦИИ.ВОЖДЕНИЕ С УВЕРЕННОСТЬЮ И КОМФОРТОМ.Настраиваемая пневмоподвеска позволяет наслаждаться комфортом. С ее помощью кузов автомобиля можно поднять при преодолении сложных участков бездорожья или опустить для легкой погрузки и посадки..ПРЕОДОЛЕНИЕ БРОДА.Не позволяйте воде остановить Вас с опциональным датчиком глубины водного препятствия Wade SensingTM. Датчики предупредят, если уровень воды приближается к максимальным для автомобиля 700 мм..ПАРКУЙТЕСЬ УВЕРЕННО.При помощи датчиков системы помощи при парковке, а также камеры заднего вида паркуйтесь и выезжайте с места парковки уверенно..ГОТОВ К ЛЮБЫМ ИСПЫТАНИЯМ.С двухступенчатой раздаточной коробкой передач Discovery Вы можете смело покорять бездорожье. Понижающие передачи коробки помогут справиться с бездорожьем, а когда приключения позади — переключитесь в обычный режим движения на дороге общего пользования..СИСТЕМА КАМЕР КРУГОВОГО ОБЗОРА.Пять опциональных цифровых камер Discovery обеспечивают обзор практически на 360° вокруг автомобиля, позволяя Вам уверенно справляться с любой ситуацией..ВАШ ПРИЦЕП МАКСИМАЛЬНО УСТОЙЧИВ.Для еще большей безопасности при буксировке система стабилизации прицепа обнаруживает начало колебаний и корректирует поведение прицепа при помощи газа и тормоза..ПУТЕШЕСТВИЯ ЕЩЕ БЕЗОПАСНЕЕ.Опциональные система обнаружения приближающихся автомобилей слева / справа при движении задним ходом и система контроля «слепых» зон созданы, чтобы обнаруживать то, что Вы можете не заметить. Теперь перестраиваться или совершать обгон еще безопаснее..ПРЕВОСХОДНОЕ КАЧЕСТВО ЗВУКА.Наслаждайтесь музыкой в первозданном исполенении с опциональной аудиосистемой мощностью 380 Вт с 11 динамиками или аудиокомплексом класса премиум с эффектом пространственного звучания мощностью 825 Вт с 17 динамиками..КЛИМАТ-КОНТРОЛЬ С ТАЙМЕРОМ.Температуру выбираете Вы. Система климат-контроля с таймером позволяет Вам заранее подогреть или охладить салон автомобиля, так что к тому моменту, как Вам нужно будет отправляться в путь, Ваш Discovery будет готов..СОВЕРШЕННЫЕ ТЕХНОЛОГИИ ПОМОЩИ ВОДИТЕЛЮ.Система адаптивного круиз-контроля с функцией оповещения об опасном сближении при помощи радара сканирует дорогу с частотой десять раз в секунду, а затем автоматически сопоставляет скорость автомобиля, который едет перед Вами, чтобы Вы могли уверенно ездить на большие расстояния..1 /.ДИЗАЙН.СМЕЛЫЙ ДИЗАЙН.Решетка радиатора, боковые зеркала и бампер придают выразительному облику Discovery еще более эффектный вид, а характерный дизайн передних фар делает его современным..Конфигуратор.ПОКАЗАТЬ ФОТОГРАФИИ.ДИЗАЙН.ВСЕ ПОД КОНТРОЛЕМ.Легендарная «командирская» посадка предоставляет водителю превосходный обзор дороги со всех сторон. Это помогает вовремя заметить источники потенциальной опасности и значительно упрощает парковку. Все органы управления эргономично расположены под рукой водителя, что дополнительно снижает напряжение и усталость за рулем..Заказать тест-драйв.ПОКАЗАТЬ ФОТОГРАФИИ.ДИЗАЙН.БЕЗОПАСНОСТЬ ПРЕЖДЕ ВСЕГО.Везете ли Вы ребенка в школу или осваиваете маршрут на бездорожье, системы помощи водителю Discovery помогут поддерживать превосходное сцепление с дорожной поверхностью и стабильность. Высокотехнологичные системы безопасности Discovery работают в любой ситуации и при любых дорожных условиях. Дополнительную уверенность придает система экстренного торможения (EBA), а также боковые подушки безопасности и подушки безопасности занавесочного типа..ПОКАЗАТЬ ФОТОГРАФИИ.ДИЗАЙН.ПАКЕТ ОПЦИЙ BLACK DESIGN.Придайте внешнему виду Вашего Discovery еще больше выразительности при помощи пакета опций Black Design. В комплект входят эффектные детали, которые сделают облик Вашего Discovery еще более динамичным и современным: от решетки радиатора до рейлингов на крышу..Конфигуратор.ПОКАЗАТЬ ФОТОГРАФИИ.ДИЗАЙН.СВЕТ И ПРОСТРАНСТВО.Панорамным видом, который открывается через прозрачную крышу Discovery, могут наслаждаться даже пассажиры заднего ряда сидений. Открывающаяся секция панорамной крыши наклоняется и сдвигается при помощи электропривода. Благодаря панорамной крыше салон наполняется светом и ощущением простора, а солнцезащитное покрытие стекла и шторки предохраняют салон от перегрева..Заказать тест-драйв.ПОКАЗАТЬ ФОТОГРАФИИ.1 /.ОБЗОР ХАРАКТЕРИСТИК.РАСХОД ТОПЛИВА (В КОМБИНИРОВАННОМ ЦИКЛЕ).7,8л/100км.С 3-литровым турбодизельным двигателем TDV6..БАГАЖНОЕ ОТДЕЛЕНИЕ.2 558л.В семиместной версии, при сложенных задних сиденьях. Грандиозное путешествие или выходные на отдыхе — в Discovery всегда хватит места..БУКСИРОВКА.3 500кг.Впечатляющие возможности для буксировки Discovery дополнены системой стабилизации прицепа, чтобы Ваш автомобиль и прицеп всегда были под контролем..ДОРОЖНЫЙ ПРОСВЕТ.240мм.Высота пневмоподвески во внедорожном режиме..СМОТРЕТЬ ХАРАКТЕРИСТИКИ.ОПЦИИ И АКСЕССУАРЫ.Не все указанные опции доступны для каждой комплектации Discovery.САЛОН.Создайте Ваше личное пространство с широким выбором отделок и материалов..ОТДЕЛКА КУЗОВА.Создайте свой стиль с широким выбором цветов и отделок Discovery..ПАКЕТЫ ОПЦИЙ.Выберите дополнительные опции, которые позволят сделать автомобиль еще более уникальным..ТЕХНОЛОГИИ И БЕЗОПАСНОСТЬ.Весь спектр интуитивных технологий у Вас под рукой..РАЗВЛЕЧЕНИЯ.Создан для того, чтобы Вы путешествовали не только с уверенностью, но и с удовольствием..АКСЕССУАРЫ.Получайте от каждого дня максимальное удовольствие..Смотреть опции и аксессуары.Конфигуратор.Land Rover Discovery 4 2016.Выбираете только лучшее и не привыкли идти на компромиссы? Вы не следуете по маршруту, а прокладываете новые пути? Представляем автомобиль, способный невероятно расширить ваши возможности и подарить еще большую свободу передвижений – Land Rover Discovery 2016. Сочетание безграничных возможностей в преодолении препятствий, роскошного комфортабельного салона и инновационная техническая «начинка» воплощают в Land Rover Discovery лучшие представления об активном образе жизни..Ленд Ровер Дискавери: внедорожник без компромиссов.Выразительный экстерьер с узнаваемым силуэтом и примечательными деталями кузова выделяет Ленд Ровер Дискавери 2016 из потока на городских улицах и гармонично сливается с природой вне оживленных дорог. Купить Ленд Ровер Дискавери 4 – универсальный автомобиль с феноменальными данными, – действительно стоит, чтобы в каждой поездке ощущать первоклассный комфорт и уверенность даже в самых непредсказуемых дорожных условиях:.Путешествуйте с удовольствием в 6-местном просторном салоне, оборудованном включенным в.цену Land Rover Discovery.премиальным аудиокомплексом и современной мультимедийной системой;.Уверенно двигайтесь по асфальту, песку, траве и водным преградам с двухступенчатой раздаточной коробкой передач, системой адаптации к дорожным условиям Terrain Response и датчиком глубины водного препятствия Wade SensingTM;.Возьмите в путешествие все необходимое, подстраивая внутреннее пространство салона под свои нужды, удобно загружая багаж и осуществляя буксировку любых грузов весом до 3,5 тонн..Рольф Ясенево представляет 4 доступные.комплектации Ленд Ровер Дискавери., впечатляющие ходовыми характеристиками, набором полезных опций и яркими элементами дизайна: универсальная.SE., притягивающая внимание.Graphite., роскошная.Landmark.и созданная для абсолютного удовольствия.HSE...Выберите комплектацию, соответствующую вашему характеру и ощутите лично напористость характера и потрясающий комфорт за рулем Ленд Ровер Дискавери на тест-драйве у официального дилера Рольф Ясенево. Узнайте больше о модельном ряде, наличии автомобилей и условиях продажи Ленд Ровер Дискавери по телефону +7 (495) 266 45 41..КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.программа помощи на дорогах.TRADE IN.программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.программа помощи на дорогах.TRADE IN.программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.программа лояльности.КОНТАКТЫ.landrover.ru.Range Rover Evoque Комплектации.Обзор.Видео.Кабриолет.Модельный ряд.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Специальные предложения.Галерея.раскрыть.Комплектации.PURE.SE.SE DYNAMIC.HSE.HSE DYNAMIC.AUTOBIOGRAPHY.Convertible HSE Dynamic.Обзор.Обзор.Видео.Кабриолет.Модельный ряд.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Специальные предложения.Галерея.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.ВЕРНУТЬСЯ В МЕНЮ.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.КОМПЛЕКТАЦИИ.PURE.SE.SE DYNAMIC.HSE.HSE DYNAMIC.AUTOBIOGRAPHY.CONVERTIBLE HSE DYNAMIC.Range Rover Evoque прошел смелую эволюцию. Это истинный Range Rover с уникальным дизайном..Gerry McGovern.Директор по дизайну и креативный директор Land Rover.уникальныЙ ДИЗАЙН.Широкий выбор цветов и вариантов отделки позволит сделать Ваш Range Rover Evoque по-настоящему уникальным воплощением Вашего стиля. Современный дизайн и эффектный силуэт гарантируют, что он не затеряется в городском потоке..КОМФОРТНЫЙ САЛОН.Кожа с декоративной двойной отстрочкой и широкий выбор вставок из дерева и алюминия позволяют создать идеальный интерьер, отражающий вкусы и предпочтения владельца. Для всех комплектаций в качестве опции доступны передние сиденья с функцией подогрева, а для комплектации HSE и HSE Dynamic — передние с функцией подогрева и охлаждения и задние с функцией подогрева. Регулируемая подсветка салона позволяет создать безупречную атмосферу..СДЕЛАЙТЕ СВОЮ ЖИЗНЬ ЯРЧЕВМЕСТЕ И INCONTROL.InControl Touch Pro — это информационно-развлекательная система Land Rover нового поколения, которая выводит качество связи и развлекательные возможности Range Rover Evoque на высочайший уровень. InControl облегчает Вашу жизнь — система помогает найти место для парковки, предусматривает потоковое воспроизведение музыки и запоминает Ваши ежедневные маршруты..ДИЗАЙН.ДИЗАЙН ЭКСТЕРЬЕРА.ДИЗАЙН, УДОСТОЕННЫЙВЫСОКИХ НАГРАД.Range Rover Evoque представлен в пятидверной версии, а также в вариантах с кузовом купе и кабриолет. Линейка автомобилей с кузовом купе предлагается для комплектаций SE Dynamic и HSE Dynamic, а пятидверная версия доступна для: Pure, SE, SE Dynamic, HSE, HSE Dynamic и Autobiography. Кабриолет Range Rover Evoque предлагается только в комплектации HSE Dynamic с тканевой крышей с Z-образной системой складывания в цвете Ebony..Конфигуратор.ДИЗАЙН ЭКСТЕРЬЕРА.RANGE ROVER EVOQUEКУПЕ.Плавные линии Range Rover Evoque купе — смелая интерпретация современного британского дизайна. Динамичный силуэт, мужественные очертания и эффектные элементы дизайна никого не оставят равнодушным..Конфигуратор.ДИЗАЙН ЭКСТЕРЬЕРА.ПАКЕТ ОПЦИЙ DYNAMIC.Пятидверная версия более практична, при этом она сохраняет мгновенно узнаваемый стиль Range Rover Evoque. Если Вы хотите покатать свою семью или друзей по городу или отвезти их в спокойное место в деревне на пикник, удобные сиденья обеспечат комфорт всех пассажиров во время поездки..Конфигуратор.1 /.RANGE ROVER EVOQUE.КАБРИОЛЕТ.С системой Z-образного складывания крыши изткани цвета Ebony возможности и стиль новогокабриолета Range Rover Evoque выходят на новыйуровень. Его характерные линии символизируютуверенность, неповторимость и самообладание, апросторный салон дает возможность пассажирамнаслаждаться комфортом открытого автомобиля..УЗНАТЬ БОЛЬШЕ.ДИЗАЙН ЭКСТЕРЬЕРА.СПЕЦИАЛЬНАЯ СЕРИЯEMBER.Эффектный контраст цвета кузова Santorini Black и крыши Firenze Red подчеркивает яркую индивидуальность автомобилей специальной серии Ember. Сиденья Ebony с эксклюзивной отстрочкой Pimento, специально разработанные для этой модели, обтянуты кожей Oxford высочайшего качества с перфорированной центральной частью..ДИЗАЙН ЭКСТЕРЬЕРА.ПАЛИТРА RANGE ROVEREVOQUE.Глубокий богатый глянец, мерцающий металлик с благородной патиной — мы используем новейшие технологии, позволяющие добиваться изумительной текстуры. Выберите цвет по своему вкусу из коллекции, в которую вошли новые оттенки премиум-металлик: Silicon Silver, Farallon Black, Carpathian Grey и Aruba..Конфигуратор.1 /.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.ПРОДУМАННАЯ КОНФИГУРАЦИЯ.Багажное отделение Range Rover Evoque отличается невероятной практичностью и стильным дизайном. В багажном отделении каждой модели достаточно места для Вашего багажа во время отдыха или спортивного снаряжения..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.КУЗОВ КУПЕ И ПЯТИДВЕРНЫЙ.Объем багажного отделения составляет 575 литров с поднятыми сиденьями в пятидверном автомобиле и 550 литров в купе. В багажном отделении обеих моделей достаточно места для багажа, необходимого для идеального отдыха в выходные или поездки за покупками..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.КАБРИОЛЕТ.Дверь багажного отделения кабриолета с продуманной конфигурацией разработана для облегчения доступа к багажному отделению. В качестве опции доступен центральный подлокотник с проемом для длинных предметов. Объем багажного отделения по-прежнему составляет 251 литр независимо от положения крыши. В нем без труда поместится стандартная сумка для клюшек для игры в гольф или детская коляска..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.ИНТЕРЬЕР.КУПЕ И ПЯТИДВЕРНЫЙВАРИАНТ.Лаконичные линии элегантного салона подчеркивают безупречное качество материалов. Создайте личное пространство: выберите по своему вкусу текстуры и цвета, кожу с двойной отстрочкой, вставки из алюминия или дерева (если доступны) и панорамную крышу, чтобы наполнить салон естественным светом..Конфигуратор.ИНТЕРЬЕР.КАБРИОЛЕТ.Дополнительные преимуществом является и то, что автомобиль четырехместный. Опциональные передние сиденья с функцией подогрева и вентиляции обеспечат непревзойденный комфорт в дороге. Элегантные линии салона изысканно гармонируют с превосходной кожей Oxford..1 /.КОМФОРТ И УДОБСТВО.ОСНАЩЕНИЕ САЛОНА.АУДИОСИСТЕМАMERIDIANTM.Аудиосистема мощностью 380 Вт благодаря оптимально расположенным 10 динамикам и сабвуферу обеспечивает исключительное качество звучания с кристально чистыми высокими и наполненными, глубокими низкими частотами..ОСНАЩЕНИЕ САЛОНА.РЕГУЛИРОВАНИЕПОДСВЕТКА САЛОНА.Создайте в салоне автомобиля особую атмосферу, выбрав один из десяти цветов регулируемой подсветки. Вы можете настроить яркость подсветки по своему вкусу, а также сделать ее едва заметной с помощью ночного режима («Stealth»)..ОСНАЩЕНИЕ САЛОНА.БОЛЬШЕ КОМФОРТА В ДОРОГЕ.Установите нужную температуру в своем Range Rover Evoque прямо сейчас. Заранее прогрейте или охладите салон автомобиля с помощью системы стояночного обогрева двигателя и салона. Также в качестве опции доступны передние сиденья с функциями подогрева и охлаждения, чтобы обеспечить непревзойденный комфорт. Передние сиденья с функцией массажа (при наличии) позволяют водителю и пассажирам передних сидений выбирать отдельные программы с помощью сенсорного экрана..ИНТЕЛЛЕКТУАЛЬНЫЙ ДОСТУП.СЕНСОРНОЕ БЕСКОНТАКТНОЕОТКРЫВАНИЕ ДВЕРИБАГАЖНИКА.Открывайте и закрывайте дверь багажника без лишних движений с помощью опционального cенсорного бесконтактного открывания двери багажника. При наличии электронного ключа для этого достаточно одного движения ногой в пространстве под задним бампером..ТЕХНОЛОГИИ.ТЕХНОЛОГИИ.СИСТЕМАINCONTROL.Наш набор передовых технологий, связывающийВас и Ваш Range Rover Evoque с внешним миром.На выбор доступны 2 уровня информационно-развлекательнойсистемы: InControl Touch и InControl Touch Pro. Эти системыможно дополнить с помощью пакетов опций InControl Connectи InControl Connect Pro, чтобы расширить свои возможностиподключения..ИННОВАЦИИ.Мы постоянно модернизируем наши технологии двигателей, используя последние инновации, такие как интеллектуальная система остановки/запуска двигателя «Стоп/Старт», которая позволяет снижать потребление топлива на 5-7 % по сравнению с двигателями предыдущих поколений. Кроме того, уменьшению расхода топлива и сокращению уровня выбросов CO2 способствует устанавливаемая на автомобилях облегченная трансмиссия..ТЕХНОЛОГИИ ДЛЯ ВОЖДЕНИЯ.Адаптивный круиз-контроль поддерживает определенную скорость в долгих путешествиях, соблюдая безопасную дистанцию до автомобиля впереди. Система адаптивного управления подвеской Adaptive Dynamics обеспечивает оптимальный баланс между плавностью хода и управляемостью автомобиля, а система динамического распределения крутящего момента на колесо гарантирует уверенное прохождение поворотов. Благодаря этим системам Вы всегда будете чувствовать себя уверенно за рулем автомобиля..ВНЕДОРОЖНЫЕ ВОЗМОЖНОСТИ.Благодаря мощи под капотом каждого автомобиля Land Rover он уверенно себя чувствует на любых поверхностях и при неблагоприятных условиях. Благодаря таким технологиям, как система адаптации к дорожным условиям Terrain Response и система контролируемого движения под уклон, Вы с легкостью преодолеете любое бездорожье..СИСТЕМЫ ПОМОЩИ ВОДИТЕЛЮ.Наши системы помощи водителю позволяют Вам сконцентрироваться на вождении благодаря эффективному мониторингу конкретных дорожных ситуаций. Например, система контроля «слепых» зон предупреждает Вас о приближении транспортных средств с любой стороны, а система камер кругового обзора включает камеры, расположенные по периметру автомобиля. Она облегчает парковку и незаменима при выполнении более сложных задач, например, при буксировке быстроходного катера или фургона для перевозки лошадей..КОМФОРТ И УДОБСТВО.Наши автомобили оснащены рядом новейших систем обогрева и охлаждения салона, обеспечивающих непревзойденный комфорт водителя и пассажиров. Независимо от погодных условий Вы прибудете в пункт назначения в спокойном состоянии и полным сил..ИНФОРМАЦИОННО-РАЗВЛЕКАТЕЛЬНАЯ СИСТЕМА.Используйте смартфон в автомобиле для доступа к различной информации и развлечениям. Если выбрать функцию двойного изображения, то спутниковая навигационная система выведет изображение дороги на 10-дюймовый сенсорный экран, в то время как пассажир на переднем сиденье сможет смотреть кинофильм на DVD. Приложения InControl Apps на смартфоне обеспечивают надежную связь водителя с автомобилем с помощью 10-дюймового сенсорного экрана. Аудиосистема Meridian™ заполняет салон музыкой..ВОЗМОЖНОСТИ.ДОПОЛНИТЕЛЬНЫЕ ВОЗМОЖНОСТИ.ALL-TERRAINPROGRESS CONTROL.Инновационная система адаптации к дорожному покрытию All-Terrain Progress Control (ATPC) позволяет водителю поддерживать стабильную скорость при езде Range Rover Evoque по бездорожью. Система действует как круиз-контроль на низкой скорости при движении передним или задним ходом по асфальту, гравию, снегу или песку..ВОЗМОЖНОСТИ.СИСТЕМА АДАПТАЦИИК ДОРОЖНЫМ УСЛОВИЯМTERRAIN RESPONSE.Система адаптации к дорожным условиям Terrain Response обеспечивает уверенное сцепление Вашего Range Rover Evoque с поверхностью в любых условиях. Присутствует в стандартной комплектации всех полноприводных автомобилей и предусматривает режимы «Обычный», «Трава / Гравий / Снег», «Грязь / Рытвины» и «Песок» для оптимального сцепления и устойчивости..ВОЗМОЖНОСТИ.СИСТЕМА ДИНАМИЧЕСКОГОРАСПРЕДЕЛЕНИЯКРУТЯЩЕГО МОМЕНТАНА КОЛЕСО.Система динамического распределения крутящего момента на колесо повышает маневренность и устойчивость Range Rover Evoque на дороге и бездорожье. Система постоянно корректирует распределение крутящего момента между колесами автомобиля, улучшая сцепление с дорогой и управляемость..ЗАПИСАТЬСЯ НА ТЕСТ-ДРАЙВ.ВОЗМОЖНОСТИ.СИСТЕМА АКТИВНОГОПОЛНОГО ПРИВОДАACTIVE DRIVELINE.Система активного полного привода Active Driveline дает преимущества как на трассе, так и на бездорожье. Для максимальной экономии топлива и снижения потерь на трение система отключает привод задних колес, когда в нем нет необходимости, и мгновенно включает его, если того требуют условия. При езде по бездорожью распределение крутящего момента корректируется в зависимости от имеющегося сцепления с поверхностью..ВОЗМОЖНОСТИ.СИСТЕМА АДАПТИВНОГОУПРАВЛЕНИЯ ПОДВЕСКОЙADAPTIVE DYNAMICS.Range Rover Evoque создан для любых дорог и погодных условий. Система адаптивного управления подвеской Adaptive Dynamics настраивает подвеску для более динамичной езды, отслеживая движения автомобиля с частотой до 1000 раз в секунду и мгновенно реагируя на действия водителя и дорожные условия для обеспечения максимальной устойчивости и плавности хода..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.1 /.ВОЗМОЖНОСТИ.СПРАВИТСЯ СЛЮБЫМ ГРУЗОМ.В некоторых поездках требуется дополнительноеоборудование. Range Rover Evoque в кузове купеили пятидверной версии справится странспортировкой прицепа массой до 2000 кг,а в кузове кабриолет — массой до 1500 кг.В опциональную систему камер кругового обзоравходит система помощи при движении с прицепом,которая упрощает движение задним ходом, указываяпрогнозируемую траекторию движения прицепа..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.ИСПЫТАНИЯ НА ГРАНИ.ПОДВЕСКА.Сложно придумать для Range Rover Evoque более суровые испытания, чем те, которым подвергли его мы. Чтобы гарантировать непревзойденные динамические возможности Range Rover Evoque на дороге и бездорожье, он испытывался на самом современном оборудовании и успешно выдержал нагрузку, аналогичную десятилетней эксплуатации..СО СКОРОСТЬЮ ВЕТРА.В наших климатических камерах мы воссоздаем самые мощные воздушные потоки, с которыми только может столкнуться Range Rover Evoque. Помимо бури со скоростью ветра до 240 км/ч автомобиль тестируется в условиях высокой температуры окружающей среды и низкой циркуляции воздуха. Только испытания систем и механизмов на пределе их возможностей могут быть гарантией их надежности..ЭКСТРЕМАЛЬНЫЕ ТЕМПЕРАТУРЫ.Где бы ни оказались наши автомобили, в условиях лютого мороза или изнуряющей жары, все их системы и узлы должны работать так же хорошо, как и всегда. Поэтому в наших климатических камерах мы проводим испытания при температуре от -40°C до +50°C. Поэтому даже в самых отдаленных горах или в пустыне Вы всегда на связи и окружены комфортом..БЕЗДОРОЖЬЕ.На покрытых льдом полигонах шведского Арьеплуга, в неумолимых песках пустыни в Дубае, — где бы Вы ни оказались, мы гарантируем, что каждый автомобиль Land Rover продемонстрирует Вам свои легендарные внедорожные возможности. Прототип каждой модели проходит испытания на сложнейших внедорожных маршрутах длиной порядка 8500 км..Конфигуратор.ХОДОВЫЕ ХАРАКТЕРИСТИКИ.ДВИГАТЕЛИ.ДИЗЕЛЬНЫЕ ДВИГАТЕЛИINGENIUM.На Range Rover Evoque устанавливаются 2-литровые двигатели Ingenium мощностью 150 или 180 л. с., отличающиеся усовершенствованной производительностью и высокой эффективностью. Передовые технологии и полностью алюминиевая конструкция способствуют значительному уменьшению расхода топлива и понижению уровня выбросов CO2.ОБЗОР КОМПЛЕКТАЦИЙ.ТРАНСМИССИЯ.9-СТУПЕНЧАТАЯАВТОМАТИЧЕСКАЯТРАНСМИССИЯ.Облегченная 9-ступенчатая автоматическая трансмиссия обеспечивает оптимальные показатели расхода топлива и выбросов CO2, а также еще больший контроль над ситуацией при движении по скользкому покрытию. Она отличается исключительной прочностью и надежностью, превосходно дополняет внедорожные качества автомобиля Land Rover и демонстрирует при этом высокий уровень технического совершенства и эффективности..КОНФИГУРАТОР.УСТОЙЧИВОЕ РАЗВИТИЕ.Экологичность Range Rover Evoque — результат комплексных усилий по сокращению воздействия на окружающую среду на протяжении всего жизненного цикла автомобиля..УСОВЕРШЕНСТВОВАННЫЕ ЛЕГКИЕ МАТЕРИАЛЫ.Благодаря широкому использованию облегченных материалов (включая магниевую поперечную балку и алюминиевый капот) Range Rover Evoque является самым легким на сегодняшний день автомобилем Range Rover. Снижен вес даже ламинированного лобового стекла для оптимизации расхода топлива и улучшения ходовых качеств..СИСТЕМА «СТОП/СТАРТ».Все двигатели оснащены интеллектуальной системой «Стоп/Старт», благодаря которой двигатель автоматически выключается во время остановки и возобновляет работу, как только водитель отпускает педаль тормоза или выжимает педаль сцепления в автомобиле с механической трансмиссией. Благодаря этому сокращается расход топлива и снижаются выбросы CO2..ОПЦИИ ИАКСЕССУАРЫ.Персонализируйте Ваш Range Rover Evoque спомощью линейки стильных, практичныхаксессуаров, по‑настоящему надежных иуниверсальных, позволяющих раскрытьВаш характер. Важно отметить, что любойаксессуар можно приобрести вместе савтомобилем или в любое время после егопокупки..СМОТРЕТЬ ОПЦИИ И АКСЕССУАРЫ.Новый Range Rover Evoque.Представляем новый Range Rover Evoque 2017 – внедорожник, призванный стать идеальным спутником городского жителя в ежедневных поездках и длительных путешествиях. Элегантные линии кузова с яркими акцентами производят впечатление, а потрясающая динамика и широкие возможности в условиях бездорожья не оставляют равнодушным..Впечатляющий облик Range Rover Evoque.В салонах официального дилера Land Rover в Москве РОЛЬФ Ясенево к продаже представлен Лэнд Ровер Эвок в трех типах кузова: вместительная и удобная пятидверная версия, стильное купе с узнаваемым плавным силуэтом и эффектный кабриолет с Z-образным сложением крыши. Вам доступны широкие возможности персонализации автомобиля, в том числе контрастная отделка крыши и кузовных элементов и эксклюзивная палитра премиум-металлик..Динамику и решительный характер внедорожника подчеркивает снижающаяся линия крыши, габаритные колесные арки и зауженная форма передних светодиодных фар. Яркий акцент в экстерьер вносит подсветка дверей, проектирующая название модели на дорожную поверхность..Купить Рендж Ровер Эвок – значит, лично ощутить беспрецедентный комфорт и эстетическое удовольствие от продуманного роскошного салона с эргономичными сиденьями. В создании уютного пространства для комфортных поездок использованы высококлассные материалы: кожи различных текстур, оригинальные двойные отстрочки, деревянные и металлические вставки. Используйте возможности регулируемой салонной подсветки и возможности доступной опционально панорамной крыши для создания особенной атмосферы в салоне авто..Инновационные технологии Land Rover.Сочетающий в себе лучшие черты городского автомобиля и безграничные возможности в суровых дорожных условиях, новый Рендж Ровер Эвок обладает впечатляющими техническими характеристиками:.Плавный ход и уверенную динамику движения обеспечивает инновационный экономичный мотор и 9-ступенчатая АКПП;.Стройте сложные маршруты, не опасаясь переутомления в длительных путешествиях: системы адаптивного круиз-контроля и управления подвеской обеспечат безопасную дистанцию, постоянную скорость и уверенное сцепление с дорогой;.Ощущайте поддержку интеллектуальных систем помощи водителю и смело бросайте вызов бездорожью. Автоматическая система полного привода в сочетании с системой адаптации к особенностям дорожного полотна помогут преодолеть любую преграду: снег, грязь и водные препятствия..Цена Рендж Ровер Эвок в Москве.Стильный внедорожник уже представлен в салонах официального дилера LR РРОЛЬФ Ясенево по выгодной цене. К продаже доступны все.комплектации Рендж Ровер Эвок.– базовая.Pure., оптимальные.SE.и.HSE., роскошная.Autobiography., – с возможностью выбора цвета кузова, материалов внутренней отделки и дополнительных опций. Покупая автомобиль у нас, вы получаете доступ к привилегированному сервисному обслуживанию, оригинальным аксессуарам и уникальным финансовым программам. Ответственный подход к каждому заказу, официальные поставки и безупречный сервис – главные принципы нашей работы..КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.программа ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.программа помощи на дорогах.TRADE IN.программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/links/fastlinks/special-offers/</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Обзор.Москва.Санкт-Петербург.Курсы водительского мастерства.раскрыть.JAGUAR LAND ROVER EXPERIENCE.Обзор.Управлять автомобилем легендарной британской марки — подлинное наслаждение. Одним уже посчастливилось испытать его, другим это удовольствие только предстоит. Сидя за рулем автомобиля, Вы наслаждаетесь комфортом, чувствуете его послушную мощь и не сомневаетесь: он может больше, значительно больше. Как ощутить полное единение с этим совершенством, чтобы в любое мгновение, на любых дорогах наслаждаться уверенностью и контролем?.Лучший ответ на этот вопрос дают курсы водительского мастерства Land Rover Experience. Если Вы владеете великолепным британским автомобилем, здесь Вам помогут по-настоящему раскрыть его потенциал. Если же Вы только мечтаете о Land Rover, Вы получите новый импульс вдохновения, убедившись на собственном опыте в преимуществах Вашего будущего автомобиля..Выберете любой из двух полигонов, действующих в России: в Подмосковье или неподалеку от Санкт-Петербурга, в Гатчине..JAGUAR LAND ROVER EXPERIENCE МОСКВА.ПЕРВЫЙ В МИРЕ.Jaguar Land Rover Experience открывается в октябре 2015 года и является, пожалуй, самым масштабным проектом компании не только в России, но и во всем мире. Впервые в истории компании весь модельный ряд легендарных инновационных брендов Jaguar и Land Rover можно будет испытать в одном потрясающем, специально предназначенном для этого пространстве..УЗНАТЬ БОЛЬШЕ.LAND ROVER EXPERIENCE ГАТЧИНА.Центр водительского мастерства Land Rover Experience в Гатчине, расположенный недалеко от Санкт-Петербурга, предлагает Вам увлекательное путешествие в мир безграничных возможностей!.УЗНАТЬ БОЛЬШЕ.КУРСЫ ВОДИТЕЛЬСКОГО МАСТЕРСТВА.Предусмотрены два типа курсов. Если Вы еще не определились с моделью, Вам предложат ознакомительную поездку. Вы сможете выбрать для тест-драйва любой автомобиль модельного ряда компании. Если Вы уже являетесь счастливым владельцем Land Rover, у Вас есть возможность воспользоваться сертификатом, который вручается при покупке автомобиля..УЗНАТЬ БОЛЬШЕ.КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/bottom/sitemap/</t>
+  </si>
+  <si>
+    <t>http://www.landroveryasenevo.ru/links/fastlinks/feedback/</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Обратная связь.Форма обратной связи.ФИО*.Телефон*+7 (.).Электронная почта.Информация об обращении*.Тема обращения*------ЗАДАТЬ ВОПРОС РУКОВОДСТВУЗАПИСЬ НА МЕРОПРИЯТИЕЗАЯВКА НА РАСЧЕТ СТОИМОСТИ АВТОМОБИЛЯ/КРЕДИТАЗАЯВКА НА ТЕСТ-ДРАЙВОТДЕЛ ПРОДАЖОТДЕЛ СЕРВИСАПОДОБРАТЬ АВТОМОБИЛЬРОЛЬФ ЯСЕНЕВОФОРМА ЗАКАЗА ТЕСТ-ДРАЙВА АВТОМОБИЛЯФОРМА ЗАПРОСА НА РАСЧЕТ СТОИМОСТИ Б/У АВТОМОБИЛЯ ФОРМА ОБРАТНОГО ЗВОНКАФОРМА ОБРАТНОЙ СВЯЗИФОРМА ОБРАТНОЙ СВЯЗИ НА ПОКУПКУ АВТО ПО СПЕЦИАЛЬНОМУ ПРЕДЛОЖЕНИЮФОРМА ПОДПИСКИ НА НОВОСТИ.Required field.Нажав кнопку «Отправить», я даю согласие на обработку моих персональных данных и получение рекламы..С условиями обработки персональных данных и получения рекламы, изложенными на сайте LANDROVERYASENEVO.RU (Согласие на обработку персональных данных и получение рекламы) — ознакомлен и согласен..Отправить.КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Range Rover от 6 304 000 руб.Range Rover Sport от 4 501 000 руб.Range Rover Evoque.Discovery от 3 812 000 руб.Discovery Sport от 2 585 000 руб.Freelander 2.Defender.специальные серии Land Rover.Range Rover.от 6 304 000 руб.ВЕРШИНА ЭВОЛЮЦИИ.Обзор.Видеопрезентация.Цены.Характеристики.Опции и аксессуары.Брошюра.Кредитный калькулятор.Галерея.Автомобили в наличии.INCONTROL.Запись на тест-драйв.Конфигуратор.Награды.Range Rover Sport.от 4 501 000 руб.САМЫЙ ДИНАМИЧНЫЙ LAND ROVER НА СЕГОДНЯШНИЙ ДЕНЬ.Совершенно новый Range Rover Sport.Видеопрезентация.Цены.Характеристики.Опции и аксессуары.Кредитный калькулятор.Специальные предложения.Галерея.Заказать тест-драйв.Конфигуратор.Range Rover Evoque.ФОРМА ПРЕВОСХОДСТВА.Обзор.Видеопрезентация.Кабриолет.Технологии.Цены.Характеристики.Опции и аксессуары.Брошюра.Кредитный калькулятор.Специальные предложения.Галерея.INCONTROL™.Запись на тест-драйв.Конфигуратор.Discovery.от 3 812 000 руб.СОЗДАН ДЛЯ ПУТЕШЕСТВИЙ.Обзор.Видеопрезентация.Цены.Характеристики.Опции и аксессуары.Брошюра.Кредитный калькулятор.Специальные предложения.Галерея.Автомобили в наличии.INCONTROL.Запись на тест-драйв.Конфигуратор.25 лет с Discovery.Discovery Sport.от 2 585 000 руб.САМЫЙ УНИВЕРСАЛЬНЫЙ КОМПАКТНЫЙ ВНЕДОРОЖНИК.Обзор.Технологии.Цены.Характеристики.Опции и аксессуары.Кредитный калькулятор.Галерея.Запись на тест-драйв.Конфигуратор.Freelander 2.ДОСТОЙНЫЙ ПУТЬ FREELANDER.Land Rover Freelander 2.Аксессуары.Галерея.Defender.ВСЕМИРНО ИЗВЕСТНЫЙ СВОЕЙ НАДЕЖНОСТЬЮ И ЛЕГЕНДАРНЫМ ДИЗАЙНОМ.Обзор.Характеристики.Опции и аксессуары.Брошюра.Галерея.Автомобили в наличии.INCONTROL.Кредитный калькулятор.Заказать тест-драйв.Специальные серии.специальные серии.НОВЫЙ УРОВЕНЬ РОСКОШИ, МОЩНОСТИ И УДОВОЛЬСТВИЯ ОТ ВОЖДЕНИЯ.обзор.Модельный ряд Land Rover.На данной странице указан полный модельный ряд Ленд Ровер 2015. Все все модели машин Land Rover отличаются отличными техническими характеристиками и потрясающим уровнем комфорта. Цена автомобилей Land Rover является вполне справедливой, если учитывать весь спектр возможностей и вариантов комплектования. Изысканная отделка внутренней части автомобилей линейки Ленд Ровер подтолкнет Вас к покупке машины Land Rover в Москве. На нашем сайте вы найдете комплектации и цены Land Rover. Обратите внимание, что стоимость Land Rover может изменятся в соответствии с выбранной комплектацией. Любая цена Ленд Ровер 2016, выставленная за конкретный автомобиль, всегда является обоснованной, ведь стоимость автомобиля Ленд Ровер всегда зависит от варианта комплектования выбранной модели. На автомобили Land Rover цены в Москве держатся еще на прежнем уровне. С каждым годом цены на Land Rover модельный ряд которого представлен на нашем сайте, только возрастает. Успейте купить внедорожник Ленд Ровер цена которого еще не успела вырасти. На нашем официальном сайте указаны все цены на модельный ряд Ленд Ровер. Новые модели автомобилей Land Rover уже в продаже: Range Rover, Discovery, Defender, Freelander, Evoque, а также спортивные вариации с дополнительными пакетами Dynamic. Новые модели Ленд Ровер оснащены мощными двигателями и современной отделкой салона. Абсолютно все модели Лэнд Ровер имеют гарантию в России и гарантийное обслуживание. Автомобиль Ленд Ровер цена которого не имеет значения для истинных владельцев британской марки, станет желанным приобретением каждого современного человека. Автомобили Land Rover являются каноном мощности и стиля в автомобилестроении. Обращайтесь к официальному дилеру Лендр Ровер Рольф Ясенево и мы предложим вам самые выгодные цены на новые автомобили всего модельного ряда Land Rover. Автопарк автомобилей для тест-драйва содержит весь модельный ряд Ленд Ровер. Узнайте больше про модели и цены Ленд Ровер на официальном сайте дилера РОЛЬФ Ясенево в Москве. Цену Ленд Ровер в Москве уточняйте у менеджеров компании..КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.раскрыть.КАРТА САЙТА.Карта сайта.Новые автомобили.RANGE ROVER.Обзор.Видео.Комплектации Range Rover.Land Rover Vogue.Vogue SE.Range Rover Autobiography.SVAutobiography.HSE.SVAutobiography Dynamic.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Опции и аксессуары.Брошюра.Кредитный калькулятор.Спецпредложения.Галерея.INCONTROL.InControl вопросы.Запись на тест-драйв.Награды.Специальные серии.RANGE ROVER SPORT.Обзор.Видео.Комплектации.S.SE.HSE.HSE DYNAMIC.AUTOBIOGRAPHY DYNAMIC.SVR.HST.Автомобили в наличии.Технологии.Цена.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Кредитный калькулятор.Специальные предложения.Галерея.Range Rover Sport SVR.INCONTROL™.InControl - Вопросы.Заказать тест-драйв.RANGE ROVER VELAR.Обзор.Комплектации.VELAR.R-DYNAMIC.FIRST EDITION.Особенности.Характеристики.Технологии.Конфигуратор.Опции и аксессуары.Галерея.RANGE ROVER EVOQUE.Обзор.Видео.Кабриолет.Брошюра.Опции и аксессуары.Характеристики.Галерея.Модельный ряд.Pure.SE.SE Dynamic.HSE.HSE Dynamic.Prestige.Dynamic.Pure Tech.Autobiography.Ember.Coupe.Coupe HSE Dynamic.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Кредитный калькулятор.Специальные предложения.Галерея.INCONTROL™.InControl - Вопросы.Запись на тест-драйв.Специальная серия.НОВЫЙ DISCOVERY.Обзор.Комплектации.S.SE.HSE.HSE LUXURY.FIRST EDITION.Предзаказ.Особенности.Характеристики.Технологии.Цена.Конфигуратор.Опции и аксессуары.Брошюра.Галерея.DISCOVERY.Обзор.Видео.Комплектации.S.HSE.SE.HSE Luxury.DISCOVERY GRAPHITE.Landmark.Автомобили в наличии.Цены.Конфигуратор.Характеристики.Аксессуары.Брошюра.Кредитный калькулятор.Специальные предложения.Галерея.INCONTROL.InControl - Вопросы.Запись на тест-драйв.25 лет с Discovery.DISCOVERY SPORT.Обзор.Видео.Модельный ряд.Pure.SE.HSE.HSE LUXURY.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Опции и аксессуары.Брошюра.Кредитный калькулятор.Специальные предложения.Галерея.INCONTROL.InControl - Вопросы.Запись на тест-драйв.FREELANDER 2.Обзор Freelander 2.Цены.Аксессуары.Галерея.Кредитный калькулятор.Конфигуратор.DEFENDER.Обзор.Комплектации.5-местный пикап.Utility Wagon.Utility Wagon SE.Land Rover Defender 90.90SE.Land Rover Defender 110.110SE.Цены.Характеристики.Аксессуары.Специальные предложения.Цены.Комплектации.Галерея.Автомобили в наличии.INCONTROL.InControl - Вопросы.Кредитный калькулятор.Заказать тест-драйв.Специальные серии.Специальные серии.Эксклюзивные покрытия SVO.Автомобили в наличии.Заказать тест-драйв.Конфигуратор.Автомобилис пробегом.Land Rover Approved.Оцените ваш Land Rover.Поиск автомобиля.Другие автомобили с пробегом.Автомобили с пробегом других марок.Заявка на оценку Вашего автомобиля.TRADE IN.Специальные предложения.Сервис.Сервис Land Rover.Гарантия.Запасные части.Сервисный пакет.Специальные программы.Аксессуары Land Rover.Обзор.Каталог сувенирной продукции.Каталог аксессуаров.Сервисное обслуживание для корпоративных клиентов.Программа помощи на дорогах.TRADE IN.Электронные сервисные книжки.Навигационная система.Работа с клиентами.Мифы об официальном сервисе.Финансовыеуслуги.Обзор.Обзор.Страхование.Обзор.КРЕДИТОВАНИЕ.Программа лояльности РОЛЬФ Премиум.Кинотеатр РОЛЬФ Премиум.Специальные программы.Кредитование.Страхование.Кредитный калькулятор.КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Контакты.О компании.Вопросы и ответы.Наша команда.раскрыть.Контакты.КОНТАКТЫ.1.Ленд Ровер Рольф Ясенево.г.Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Режим работы автосалона.08:00-22:00.Режим работы сервисного центра.09:00-21:00.Телефон.+7 (495) 777-999-3.Эл. почта.jlrR-iny3JadsQsenLevo@rolf.ru9u.на карте.построить маршрут.Уважаемые клиенты, Внимание! 23 Декабря мы работаем до 21:00.Реквизиты организации Ягуар Ленд Ровер РОЛЬФ Ясенево.Название.ООО «РОЛЬФ» (Филиал «ЯЛР Ясенево»).ОГРН.1045009553577.ИНН.5047059383.КПП.772843013.Юридический адрес.141410, Московская область, г. Химки, Ленинградское шоссе, влад.21.Ленд Ровер РОЛЬФ Ясенево - лучший автосалон Land Rover, Range Rover в Москве!.КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Range Rover Evoque Комплектации.Обзор.Видео.Кабриолет.Модельный ряд.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Специальные предложения.Галерея.раскрыть.Комплектации.PURE.SE.SE DYNAMIC.HSE.HSE DYNAMIC.AUTOBIOGRAPHY.Convertible HSE Dynamic.Обзор.Обзор.Видео.Кабриолет.Модельный ряд.Автомобили в наличии.Технологии.Цены.Конфигуратор.Характеристики.Сервисный пакет.Аксессуары.Брошюра.Специальные предложения.Галерея.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.ВЕРНУТЬСЯ В МЕНЮ.ВЫБЕРИТЕ КОМПЛЕКТАЦИЮ.КОМПЛЕКТАЦИИ.PURE.SE.SE DYNAMIC.HSE.HSE DYNAMIC.AUTOBIOGRAPHY.CONVERTIBLE HSE DYNAMIC.Range Rover Evoque прошел смелую эволюцию. Это истинный Range Rover с уникальным дизайном..Gerry McGovern.Директор по дизайну и креативный директор Land Rover.УНИКАЛЬНЫЙ ДИЗАЙН.Широкий выбор цветов и вариантов отделки позволит сделать Ваш Range Rover Evoque по-настоящему уникальным воплощением Вашего стиля. Современный дизайн и эффектный силуэт гарантируют, что он не затеряется в городском потоке..КОМФОРТНЫЙ САЛОН.Кожа с декоративной двойной отстрочкой и широкий выбор вставок из дерева и алюминия позволяют создать идеальный интерьер, отражающий вкусы и предпочтения владельца. Для всех комплектаций в качестве опции доступны передние сиденья с функцией подогрева, а для комплектации HSE и HSE Dynamic — передние с функцией подогрева и охлаждения и задние с функцией подогрева. Регулируемая подсветка салона позволяет создать безупречную атмосферу..СДЕЛАЙТЕ СВОЮ ЖИЗНЬ ЯРЧЕВМЕСТЕ И INCONTROL.InControl Touch Pro — это информационно-развлекательная система Land Rover нового поколения, которая выводит качество связи и развлекательные возможности Range Rover Evoque на высочайший уровень. InControl облегчает Вашу жизнь — система помогает найти место для парковки, предусматривает потоковое воспроизведение музыки и запоминает Ваши ежедневные маршруты..ДИЗАЙН.ДИЗАЙН ЭКСТЕРЬЕРА.ДИЗАЙН, УДОСТОЕННЫЙВЫСОКИХ НАГРАД.Range Rover Evoque представлен в пятидверной версии, а также в вариантах с кузовом купе и кабриолет. Линейка автомобилей с кузовом купе предлагается для комплектаций SE Dynamic и HSE Dynamic, а пятидверная версия доступна для: Pure, SE, SE Dynamic, HSE, HSE Dynamic и Autobiography. Кабриолет Range Rover Evoque предлагается только в комплектации HSE Dynamic с тканевой крышей с Z-образной системой складывания в цвете Ebony..Конфигуратор.ДИЗАЙН ЭКСТЕРЬЕРА.RANGE ROVER EVOQUEКУПЕ.Плавные линии Range Rover Evoque купе — смелая интерпретация современного британского дизайна. Динамичный силуэт, мужественные очертания и эффектные элементы дизайна никого не оставят равнодушным..Конфигуратор.ДИЗАЙН ЭКСТЕРЬЕРА.ПАКЕТ ОПЦИЙ DYNAMIC.Пятидверная версия более практична, при этом она сохраняет мгновенно узнаваемый стиль Range Rover Evoque. Если Вы хотите покатать свою семью или друзей по городу или отвезти их в спокойное место в деревне на пикник, удобные сиденья обеспечат комфорт всех пассажиров во время поездки..Конфигуратор.1 /.RANGE ROVER EVOQUE.КАБРИОЛЕТ.С системой Z-образного складывания крыши изткани цвета Ebony возможности и стиль новогокабриолета Range Rover Evoque выходят на новыйуровень. Его характерные линии символизируютуверенность, неповторимость и самообладание, апросторный салон дает возможность пассажирамнаслаждаться комфортом открытого автомобиля..УЗНАТЬ БОЛЬШЕ.ДИЗАЙН ЭКСТЕРЬЕРА.СПЕЦИАЛЬНАЯ СЕРИЯEMBER.Эффектный контраст цвета кузова Santorini Black и крыши Firenze Red подчеркивает яркую индивидуальность автомобилей специальной серии Ember. Сиденья Ebony с эксклюзивной отстрочкой Pimento, специально разработанные для этой модели, обтянуты кожей Oxford высочайшего качества с перфорированной центральной частью..ДИЗАЙН ЭКСТЕРЬЕРА.ПАЛИТРА RANGE ROVEREVOQUE.Глубокий богатый глянец, мерцающий металлик с благородной патиной — мы используем новейшие технологии, позволяющие добиваться изумительной текстуры. Выберите цвет по своему вкусу из коллекции, в которую вошли новые оттенки премиум-металлик: Silicon Silver, Farallon Black, Carpathian Grey и Aruba..Конфигуратор.1 /.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.ПРОДУМАННАЯ КОНФИГУРАЦИЯ.Багажное отделение Range Rover Evoque отличается невероятной практичностью и стильным дизайном. В багажном отделении каждой модели достаточно места для Вашего багажа во время отдыха или спортивного снаряжения..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.КУЗОВ КУПЕ И ПЯТИДВЕРНЫЙ.Объем багажного отделения составляет 575 литров с поднятыми сиденьями в пятидверном автомобиле и 550 литров в купе. В багажном отделении обеих моделей достаточно места для багажа, необходимого для идеального отдыха в выходные или поездки за покупками..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.УНИВЕРСАЛЬНЫЙ ИНТЕРЬЕР.КАБРИОЛЕТ.Дверь багажного отделения кабриолета с продуманной конфигурацией разработана для облегчения доступа к багажному отделению. В качестве опции доступен центральный подлокотник с проемом для длинных предметов. Объем багажного отделения по-прежнему составляет 251 литр независимо от положения крыши. В нем без труда поместится стандартная сумка для клюшек для игры в гольф или детская коляска..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.ИНТЕРЬЕР.КУПЕ И ПЯТИДВЕРНЫЙВАРИАНТ.Лаконичные линии элегантного салона подчеркивают безупречное качество материалов. Создайте личное пространство: выберите по своему вкусу текстуры и цвета, кожу с двойной отстрочкой, вставки из алюминия или дерева (если доступны) и панорамную крышу, чтобы наполнить салон естественным светом..Конфигуратор.ИНТЕРЬЕР.КАБРИОЛЕТ.Дополнительные преимуществом является и то, что автомобиль четырехместный. Опциональные передние сиденья с функцией подогрева и вентиляции обеспечат непревзойденный комфорт в дороге. Элегантные линии салона изысканно гармонируют с превосходной кожей Oxford..1 /.КОМФОРТ И УДОБСТВО.ОСНАЩЕНИЕ САЛОНА.АУДИОСИСТЕМАMERIDIANTM.Аудиосистема мощностью 380 Вт благодаря оптимально расположенным 10 динамикам и сабвуферу обеспечивает исключительное качество звучания с кристально чистыми высокими и наполненными, глубокими низкими частотами..ОСНАЩЕНИЕ САЛОНА.РЕГУЛИРОВАНИЕПОДСВЕТКА САЛОНА.Создайте в салоне автомобиля особую атмосферу, выбрав один из десяти цветов регулируемой подсветки. Вы можете настроить яркость подсветки по своему вкусу, а также сделать ее едва заметной с помощью ночного режима («Stealth»)..ОСНАЩЕНИЕ САЛОНА.БОЛЬШЕ КОМФОРТА В ДОРОГЕ.Установите нужную температуру в своем Range Rover Evoque прямо сейчас. Заранее прогрейте или охладите салон автомобиля с помощью системы стояночного обогрева двигателя и салона. Также в качестве опции доступны передние сиденья с функциями подогрева и охлаждения, чтобы обеспечить непревзойденный комфорт. Передние сиденья с функцией массажа (при наличии) позволяют водителю и пассажирам передних сидений выбирать отдельные программы с помощью сенсорного экрана..ИНТЕЛЛЕКТУАЛЬНЫЙ ДОСТУП.СЕНСОРНОЕ БЕСКОНТАКТНОЕОТКРЫВАНИЕ ДВЕРИБАГАЖНИКА.Открывайте и закрывайте дверь багажника без лишних движений с помощью опционального cенсорного бесконтактного открывания двери багажника. При наличии электронного ключа для этого достаточно одного движения ногой в пространстве под задним бампером..ТЕХНОЛОГИИ.ТЕХНОЛОГИИ.СИСТЕМАINCONTROL.Наш набор передовых технологий, связывающийВас и Ваш Range Rover Evoque с внешним миром.На выбор доступны 2 уровня информационно-развлекательнойсистемы: InControl Touch и InControl Touch Pro. Эти системыможно дополнить с помощью пакетов опций InControl Connectи InControl Connect Pro, чтобы расширить свои возможностиподключения..ИННОВАЦИИ.Мы постоянно модернизируем наши технологии двигателей, используя последние инновации, такие как интеллектуальная система остановки/запуска двигателя «Стоп/Старт», которая позволяет снижать потребление топлива на 5-7 % по сравнению с двигателями предыдущих поколений. Кроме того, уменьшению расхода топлива и сокращению уровня выбросов CO2 способствует устанавливаемая на автомобилях облегченная трансмиссия..ТЕХНОЛОГИИ ДЛЯ ВОЖДЕНИЯ.Адаптивный круиз-контроль поддерживает определенную скорость в долгих путешествиях, соблюдая безопасную дистанцию до автомобиля впереди. Система адаптивного управления подвеской Adaptive Dynamics обеспечивает оптимальный баланс между плавностью хода и управляемостью автомобиля, а система динамического распределения крутящего момента на колесо гарантирует уверенное прохождение поворотов. Благодаря этим системам Вы всегда будете чувствовать себя уверенно за рулем автомобиля..ВНЕДОРОЖНЫЕ ВОЗМОЖНОСТИ.Благодаря мощи под капотом каждого автомобиля Land Rover он уверенно себя чувствует на любых поверхностях и при неблагоприятных условиях. Благодаря таким технологиям, как система адаптации к дорожным условиям Terrain Response и система контролируемого движения под уклон, Вы с легкостью преодолеете любое бездорожье..СИСТЕМЫ ПОМОЩИ ВОДИТЕЛЮ.Наши системы помощи водителю позволяют Вам сконцентрироваться на вождении благодаря эффективному мониторингу конкретных дорожных ситуаций. Например, система контроля «слепых» зон предупреждает Вас о приближении транспортных средств с любой стороны, а система камер кругового обзора включает камеры, расположенные по периметру автомобиля. Она облегчает парковку и незаменима при выполнении более сложных задач, например, при буксировке быстроходного катера или фургона для перевозки лошадей..КОМФОРТ И УДОБСТВО.Наши автомобили оснащены рядом новейших систем обогрева и охлаждения салона, обеспечивающих непревзойденный комфорт водителя и пассажиров. Независимо от погодных условий Вы прибудете в пункт назначения в спокойном состоянии и полным сил..ИНФОРМАЦИОННО-РАЗВЛЕКАТЕЛЬНАЯ СИСТЕМА.Используйте смартфон в автомобиле для доступа к различной информации и развлечениям. Если выбрать функцию двойного изображения, то спутниковая навигационная система выведет изображение дороги на 10-дюймовый сенсорный экран, в то время как пассажир на переднем сиденье сможет смотреть кинофильм на DVD. Приложения InControl Apps на смартфоне обеспечивают надежную связь водителя с автомобилем с помощью 10-дюймового сенсорного экрана. Аудиосистема Meridian™ заполняет салон музыкой..ВОЗМОЖНОСТИ.ДОПОЛНИТЕЛЬНЫЕ ВОЗМОЖНОСТИ.ALL-TERRAINPROGRESS CONTROL.Инновационная система адаптации к дорожному покрытию All-Terrain Progress Control (ATPC) позволяет водителю поддерживать стабильную скорость при езде Range Rover Evoque по бездорожью. Система действует как круиз-контроль на низкой скорости при движении передним или задним ходом по асфальту, гравию, снегу или песку..ВОЗМОЖНОСТИ.СИСТЕМА АДАПТАЦИИК ДОРОЖНЫМ УСЛОВИЯМTERRAIN RESPONSE.Система адаптации к дорожным условиям Terrain Response обеспечивает уверенное сцепление Вашего Range Rover Evoque с поверхностью в любых условиях. Присутствует в стандартной комплектации всех полноприводных автомобилей и предусматривает режимы «Обычный», «Трава / Гравий / Снег», «Грязь / Рытвины» и «Песок» для оптимального сцепления и устойчивости..ВОЗМОЖНОСТИ.СИСТЕМА ДИНАМИЧЕСКОГОРАСПРЕДЕЛЕНИЯКРУТЯЩЕГО МОМЕНТАНА КОЛЕСО.Система динамического распределения крутящего момента на колесо повышает маневренность и устойчивость Range Rover Evoque на дороге и бездорожье. Система постоянно корректирует распределение крутящего момента между колесами автомобиля, улучшая сцепление с дорогой и управляемость..ЗАПИСАТЬСЯ НА ТЕСТ-ДРАЙВ.ВОЗМОЖНОСТИ.СИСТЕМА АКТИВНОГОПОЛНОГО ПРИВОДАACTIVE DRIVELINE.Система активного полного привода Active Driveline дает преимущества как на трассе, так и на бездорожье. Для максимальной экономии топлива и снижения потерь на трение система отключает привод задних колес, когда в нем нет необходимости, и мгновенно включает его, если того требуют условия. При езде по бездорожью распределение крутящего момента корректируется в зависимости от имеющегося сцепления с поверхностью..ВОЗМОЖНОСТИ.СИСТЕМА АДАПТИВНОГОУПРАВЛЕНИЯ ПОДВЕСКОЙADAPTIVE DYNAMICS.Range Rover Evoque создан для любых дорог и погодных условий. Система адаптивного управления подвеской Adaptive Dynamics настраивает подвеску для более динамичной езды, отслеживая движения автомобиля с частотой до 1000 раз в секунду и мгновенно реагируя на действия водителя и дорожные условия для обеспечения максимальной устойчивости и плавности хода..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.1 /.ВОЗМОЖНОСТИ.СПРАВИТСЯ СЛЮБЫМ ГРУЗОМ.В некоторых поездках требуется дополнительноеоборудование. Range Rover Evoque в кузове купеили пятидверной версии справится странспортировкой прицепа массой до 2000 кг,а в кузове кабриолет — массой до 1500 кг.В опциональную систему камер кругового обзоравходит система помощи при движении с прицепом,которая упрощает движение задним ходом, указываяпрогнозируемую траекторию движения прицепа..ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.ИСПЫТАНИЯ НА ГРАНИ.ПОДВЕСКА.Сложно придумать для Range Rover Evoque более суровые испытания, чем те, которым подвергли его мы. Чтобы гарантировать непревзойденные динамические возможности Range Rover Evoque на дороге и бездорожье, он испытывался на самом современном оборудовании и успешно выдержал нагрузку, аналогичную десятилетней эксплуатации..СО СКОРОСТЬЮ ВЕТРА.В наших климатических камерах мы воссоздаем самые мощные воздушные потоки, с которыми только может столкнуться Range Rover Evoque. Помимо бури со скоростью ветра до 240 км/ч автомобиль тестируется в условиях высокой температуры окружающей среды и низкой циркуляции воздуха. Только испытания систем и механизмов на пределе их возможностей могут быть гарантией их надежности..ЭКСТРЕМАЛЬНЫЕ ТЕМПЕРАТУРЫ.Где бы ни оказались наши автомобили, в условиях лютого мороза или изнуряющей жары, все их системы и узлы должны работать так же хорошо, как и всегда. Поэтому в наших климатических камерах мы проводим испытания при температуре от -40°C до +50°C. Поэтому даже в самых отдаленных горах или в пустыне Вы всегда на связи и окружены комфортом..БЕЗДОРОЖЬЕ.На покрытых льдом полигонах шведского Арьеплуга, в неумолимых песках пустыни в Дубае, — где бы Вы ни оказались, мы гарантируем, что каждый автомобиль Land Rover продемонстрирует Вам свои легендарные внедорожные возможности. Прототип каждой модели проходит испытания на сложнейших внедорожных маршрутах длиной порядка 8500 км..Конфигуратор.ХОДОВЫЕ ХАРАКТЕРИСТИКИ.ДВИГАТЕЛИ.ДИЗЕЛЬНЫЕ ДВИГАТЕЛИINGENIUM.На Range Rover Evoque устанавливаются 2-литровые двигатели Ingenium мощностью 150 или 180 л. с., отличающиеся усовершенствованной производительностью и высокой эффективностью. Передовые технологии и полностью алюминиевая конструкция способствуют значительному уменьшению расхода топлива и понижению уровня выбросов CO2.ОБЗОР КОМПЛЕКТАЦИЙ.ТРАНСМИССИЯ.9-СТУПЕНЧАТАЯАВТОМАТИЧЕСКАЯТРАНСМИССИЯ.Облегченная 9-ступенчатая автоматическая трансмиссия обеспечивает оптимальные показатели расхода топлива и выбросов CO2, а также еще больший контроль над ситуацией при движении по скользкому покрытию. Она отличается исключительной прочностью и надежностью, превосходно дополняет внедорожные качества автомобиля Land Rover и демонстрирует при этом высокий уровень технического совершенства и эффективности..КОНФИГУРАТОР.УСТОЙЧИВОЕ РАЗВИТИЕ.Экологичность Range Rover Evoque — результат комплексных усилий по сокращению воздействия на окружающую среду на протяжении всего жизненного цикла автомобиля..УСОВЕРШЕНСТВОВАННЫЕ ЛЕГКИЕ МАТЕРИАЛЫ.Благодаря широкому использованию облегченных материалов (включая магниевую поперечную балку и алюминиевый капот) Range Rover Evoque является самым легким на сегодняшний день автомобилем Range Rover. Снижен вес даже ламинированного лобового стекла для оптимизации расхода топлива и улучшения ходовых качеств..СИСТЕМА «СТОП/СТАРТ».Все двигатели оснащены интеллектуальной системой «Стоп/Старт», благодаря которой двигатель автоматически выключается во время остановки и возобновляет работу, как только водитель отпускает педаль тормоза или выжимает педаль сцепления в автомобиле с механической трансмиссией. Благодаря этому сокращается расход топлива и снижаются выбросы CO2..ОПЦИИ ИАКСЕССУАРЫ.Персонализируйте Ваш Range Rover Evoque спомощью линейки стильных, практичныхаксессуаров, по‑настоящему надежных иуниверсальных, позволяющих раскрытьВаш характер. Важно отметить, что любойаксессуар можно приобрести вместе савтомобилем или в любое время после егопокупки..СМОТРЕТЬ ОПЦИИ И АКСЕССУАРЫ.Новый Range Rover Evoque.Представляем новый Range Rover Evoque 2017 – внедорожник, призванный стать идеальным спутником городского жителя в ежедневных поездках и длительных путешествиях. Элегантные линии кузова с яркими акцентами производят впечатление, а потрясающая динамика и широкие возможности в условиях бездорожья не оставляют равнодушным..Впечатляющий облик Range Rover Evoque.В салонах официального дилера Land Rover в Москве РОЛЬФ Ясенево к продаже представлен Лэнд Ровер Эвок в трех типах кузова: вместительная и удобная пятидверная версия, стильное купе с узнаваемым плавным силуэтом и эффектный кабриолет с Z-образным сложением крыши. Вам доступны широкие возможности персонализации автомобиля, в том числе контрастная отделка крыши и кузовных элементов и эксклюзивная палитра премиум-металлик..Динамику и решительный характер внедорожника подчеркивает снижающаяся линия крыши, габаритные колесные арки и зауженная форма передних светодиодных фар. Яркий акцент в экстерьер вносит подсветка дверей, проектирующая название модели на дорожную поверхность..Купить Рендж Ровер Эвок – значит, лично ощутить беспрецедентный комфорт и эстетическое удовольствие от продуманного роскошного салона с эргономичными сиденьями. В создании уютного пространства для комфортных поездок использованы высококлассные материалы: кожи различных текстур, оригинальные двойные отстрочки, деревянные и металлические вставки. Используйте возможности регулируемой салонной подсветки и возможности доступной опционально панорамной крыши для создания особенной атмосферы в салоне авто..Инновационные технологии Land Rover.Сочетающий в себе лучшие черты городского автомобиля и безграничные возможности в суровых дорожных условиях, новый Рендж Ровер Эвок обладает впечатляющими техническими характеристиками:.Плавный ход и уверенную динамику движения обеспечивает инновационный экономичный мотор и 9-ступенчатая АКПП;.Стройте сложные маршруты, не опасаясь переутомления в длительных путешествиях: системы адаптивного круиз-контроля и управления подвеской обеспечат безопасную дистанцию, постоянную скорость и уверенное сцепление с дорогой;.Ощущайте поддержку интеллектуальных систем помощи водителю и смело бросайте вызов бездорожью. Автоматическая система полного привода в сочетании с системой адаптации к особенностям дорожного полотна помогут преодолеть любую преграду: снег, грязь и водные препятствия..Цена Рендж Ровер Эвок в Москве.Стильный внедорожник уже представлен в салонах официального дилера LR РРОЛЬФ Ясенево по выгодной цене. К продаже доступны все.комплектации Рендж Ровер Эвок.– базовая.Pure., оптимальные.SE.и.HSE., роскошная.Autobiography., – с возможностью выбора цвета кузова, материалов внутренней отделки и дополнительных опций. Покупая автомобиль у нас, вы получаете доступ к привилегированному сервисному обслуживанию, оригинальным аксессуарам и уникальным финансовым программам. Ответственный подход к каждому заказу, официальные поставки и безупречный сервис – главные принципы нашей работы..КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Специальные предложения.Все категории.Новые автомобили.Кредит.TRADE-IN.Корпоративные продажи.Автомобили с пробегом.Сервис.Аксессуары.Архив.Спецпредложения РОЛЬФ.раскрыть.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.ВСЕ КАТЕГОРИИ.ВСЕ КАТЕГОРИИ.Новые автомобили.Кредит.TRADE-IN.Корпоративные продажи.Автомобили с пробегом.Сервис.Аксессуары.Архив.Спецпредложения РОЛЬФ.Новые автомобили.Кредит.TRADE-IN.Корпоративные продажи.Автомобили с пробегом.Сервис.Аксессуары.Архив.Спецпредложения РОЛЬФ.КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.ПРОГРАММА ЛОЯЛЬНОСТИ.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.FINANCE.КОРПОРАТИВНЫМ КЛИЕНТАМ.КОНТАКТЫ.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.АВТОМОБИЛИ В НАЛИЧИИ.АВТОМОБИЛИ С ПРОБЕГОМ.СЕРВИС.FINANCE.КОРПОРАТИВНЫМ КЛИЕНТАМ.КОНТАКТЫ.ПРЕДЛОЖЕНИЯ И ПРОГРАММЫ.1 /.показать больше предложенийпоказать меньше предложений.НОВОСТИ.АРХИВ НОВОСТЕЙ.13-03-2017.JAGUAR LAND ROVER НАЧИНАЕТ СТРОИТЕЛЬСТВО НОВОГО ИНЖЕНЕРНО-КОНСТРУКТОРСКОГО ЦЕНТРА.Компания Jaguar Land Rover, крупнейший автопроизводитель в Великобритании, объявила о начале работ по реконструкции Инженерно-конструкторского центра в Гейдоне, Уорикшир (Gaydon, Warwickshire), общей стоимостью 200 миллионов фунтов стерлингов..подробнее.9-03-2017.JAGUAR LAND ROVER И ZENITH ПРЕДСТАВЛЯЮТ ЭКСКЛЮЗИВНЫЕ ЧАСЫ CHRONOMASTER EL PRIMERO RANGE ROVER VELAR.В честь премьеры совершенно нового Range Rover Velar, четвертого автомобиля в семействе Range Rover, Jaguar Land Rover совместно со швейцарским производителем Zenith представляет эксклюзивные часы Zenith Chronomaster El Primero Range Rover Velar..подробнее.7-03-2017.DISCOVERY PROJECT HERO: СОВМЕСТНЫЙ ПРОЕКТ LAND ROVER И КРАСНОГО КРЕСТА.Подразделение Jaguar Land Rover Special Vehicle Operations (SVO) представляет уникальную версию нового Land Rover Discovery, разработанную специально для австрийского Красного Креста. Модификация, получившая название Project Hero, была впервые показана публике на Женевском автосалоне.подробнее.27-09-2016.ОТПРАЗДНУЙТЕ ПОКУПКУ СВОЕГО LAND ROVER В ГРЕЦИИ.Путешествие в подарок при покупке RANGE ROVER EVOQUE или DISCOVERY SPORT в РОЛЬФ ЯСЕНЕВО!.подробнее.АРХИВ НОВОСТЕЙ.Ленд Ровер РОЛЬФ Ясенево - официальный дилер Land Rover в Москве!.Ленд Ровер РОЛЬФ Ясенево – официальный дилер Land Rover, New Range Rover. Наш дилерский центр осуществляет продажу всего модельного ряда Land Rover..В нашем автосалоне Вас всегда ждет огромный выбор автомобилей Land Rover в наличии, купить которые вы можете на максимально выгодных условиях. Вы всегда можете совершить пробную поездку на выбранной Вами модели, воспользовавшись услугой тест-драйв..Для удобства приобретения выбранной Вами модели Land Rover наш дилерский центр предлагает воспользоваться специальными кредитными предложениями. Так же Вы можете обменять свой старый автомобиль на новый по программе Trade-in..В Ленд Ровер РОЛЬФ Ясенево Вы можете произвести техническое обслуживание, диагностику и ремонт Вашего автомобиля, а так же приобрести оригинальные запасные части и аксессуары..Не знате где купить новый Land Rover? Цена на автомобили Ленд Ровер у официального дилера Land Rover РОЛЬФ Ясенево всегда остается привлекательной. У всех автомобилей Лэнд Ровер стоимость будет изменяться в зависимости от выбранной комплектации машины..Если Вы желаете узнать информацию о комплектациях и ценах на Land Rover 2014 и 2015 модельных годов, а так же получить профессиональную консультацию по всем интересующим вопросам, Вы всегда можете обратиться к менеджерам отдела продаж по телефону.+7 (495) 777-999-3.КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
+  </si>
+  <si>
+    <t>Рольф Ясенево.Рольф Ясенево.Адрес: г. Москва, 40-й км МКАД (внешняя сторона), вл. 1, стр. 2.Модельный ряд.Новые автомобили.RANGE ROVER.RANGE ROVER SPORT.RANGE ROVER VELAR.RANGE ROVER EVOQUE.НОВЫЙ DISCOVERY.DISCOVERY.DISCOVERY SPORT.FREELANDER 2.DEFENDER.Специальные серии.Автомобили в наличии.Конфигуратор.Автомобилис пробегом.Специальные предложения.Сервис.Финансовыеуслуги.+7 (495) 777 999 3.+7 (495).777 999 3.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Быстрые ссылки.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.landrover.ru.Обзор.Программа лояльности РОЛЬФ Премиум.Кинотеатр РОЛЬФ Премиум.Специальные программы.Кредитование.Страхование.Кредитный калькулятор.раскрыть.Программа лояльности.Мир привилегий Land Rover.ПРОГРАММА ЛОЯЛЬНОСТИ.Компания Land Rover продолжает развивать программу лояльности для своих Клиентов, предоставляя приверженцам марок Land Rover и Jaguar дополнительные льготы и привилегии..Цель программы – предоставить особые условия покупки и обслуживания частным Клиентам, которые в течение 36 месяцев приобрели три или более новых автомобилей марок Land Rover и/или Jaguar.В этом случае при покупке третьего и всех последующих автомобилей действует система скидок*, размер которых зависит от количества приобретаемых автомобилей.Кроме того, программой предоставляется пакет услуг, в которых индивидуальный подход сочетается с целым рядом льгот в области обслуживания.Стать участником программы можно при покупке трех и более автомобилей в течение 36 месяцев. Программа лояльности поддерживается уполномоченными официальными дилерами Land Rover в России, Беларуси и Казахстане..МИР привилегиЙ LAND ROVER.Узнайте подробности.ПЕРСОНАЛЬНЫЙ КАБИНЕТ.узнайте подробности.КОНФИГУРАТОР.Создайте Ваш идеальный Land Rover с помощью конфигуратора.СПЕЦИАЛЬНЫЕ ПРЕДЛОЖЕНИЯ.Познакомьтесь с нашими интересными предложениями.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Запишитесь на тест-драйв прямо на сайте.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.FINANCIAL SERVICES.МОБИЛЬНОЕ ПРИЛОЖЕНИЕ.Еще удобнее, еще информативнее.ПРОГРАММА ЛОЯЛЬНОСТИ.Дополнительные льготы и привилегии.АВТОМОБИЛИ С ПРОБЕГОМ.Выбирайте Land Rover Approved.СУВЕНИРНАЯ КОЛЛЕКЦИЯ.Оригинальная сувенирная коллекция от Land Rover.Спецпредложения.Запись на Тест-Драйв.Заявка на оценку Вашего автомобиля.Запись на сервис.Конфигуратор.Обратная связь.Брошюры.Новости.Подписаться на новости.Оцените ваш Land Rover.Программа помощи на дорогах.TRADE IN.Программа лояльности РОЛЬФ Премиум.Отписаться от SMS рассылки.Experience.КОРПОРАТИВНЫМ КЛИЕНТАМ.Above &amp; Beyond.Программа лояльности.КОНТАКТЫ.Обзор.Land Rover Bar.Land Rover в России.Land Rover Life.Экспедиции.Наследие и ценности.Инновации и технологии.Открывая Россию.25 лет с Discovery.45 лет Range Rover.Жизнь за гранью обыденного.Магазин Land Rover.Land Rover Club.Мобильное приложение.InControl.facebook.vkontakte.twitter.instagram.youtube.Правовая информация.Политика конфиденциальности.Карта сайта.Контакты.© ООО «Ягуар Ленд Ровер» 2017.Права на сайт принадлежат ООО «РОЛЬФ» Филиал «ЯЛР Ясенево» (ИНН 5047059383, ОГРН 1045009553577), тел. +7 (495) 777-999-3, адрес эл. почты jlr-yasenevo@rolf.ru.КОНФИГУРАТОР.КРЕДИТНЫЙ КАЛЬКУЛЯТОР.ЗАКАЗАТЬ ТЕСТ-ДРАЙВ.Мои условия.Программа лояльности.Мобильное приложение</t>
   </si>
 </sst>
 </file>
@@ -368,244 +433,1230 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AI2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:35">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/reader.xlsx
+++ b/reader.xlsx
@@ -5,14 +5,14 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/PycharmProjects/parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -23,14 +23,159 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">  http://www.mazda.genser.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mazda-asc.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mazda-bcrmotors.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mazda-elkemotor.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mazda-kaluga.genser.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mazdanv.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mazda-sibautocentr.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mazda-yaroslavl.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mercedes-asmoto.ru  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mercedes-astrakhan.ru/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mercedes-autoforum.ru  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mercedes-avangard.ru  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mercedes-irkutsk.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mercedes-izmaylovo.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mercedes-kama.ru/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://www.mercedes-khabarovsk.ru</t>
+  </si>
+  <si>
+    <t>скидка</t>
+  </si>
+  <si>
+    <t>акция</t>
+  </si>
+  <si>
+    <t>подарок</t>
+  </si>
+  <si>
+    <t>специальная цена</t>
+  </si>
+  <si>
+    <t>Спецпредложения</t>
+  </si>
+  <si>
+    <t>уникальны</t>
+  </si>
+  <si>
+    <t>специальн предложен</t>
+  </si>
+  <si>
+    <t>выгод</t>
+  </si>
+  <si>
+    <t>эксклюзивн услови</t>
+  </si>
+  <si>
+    <t>преимуществ</t>
+  </si>
+  <si>
+    <t>уникальн цен</t>
+  </si>
+  <si>
+    <t>привлекательн услови</t>
+  </si>
+  <si>
+    <t>кампани</t>
+  </si>
+  <si>
+    <t>дари</t>
+  </si>
+  <si>
+    <t>предлага услуг</t>
+  </si>
+  <si>
+    <t>привилеги</t>
+  </si>
+  <si>
+    <t>рекордн услови</t>
+  </si>
+  <si>
+    <t>комплимент</t>
+  </si>
+  <si>
+    <t>услови</t>
+  </si>
+  <si>
+    <t>предложен ограничен</t>
+  </si>
+  <si>
+    <t>наш клиент</t>
+  </si>
+  <si>
+    <t>распродажа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">успей </t>
+  </si>
+  <si>
+    <t>сейчас или никогда</t>
+  </si>
+  <si>
+    <t>предложен дня</t>
+  </si>
+  <si>
+    <t>только сейчас</t>
+  </si>
+  <si>
+    <t>только сегодн</t>
+  </si>
+  <si>
+    <t>гарантия лучшей цены</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -333,12 +479,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reader.xlsx
+++ b/reader.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,140 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">  http://www.mazda.genser.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mazda-asc.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mazda-bcrmotors.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mazda-elkemotor.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mazda-kaluga.genser.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mazdanv.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mazda-sibautocentr.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mazda-yaroslavl.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mercedes-asmoto.ru  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mercedes-astrakhan.ru/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mercedes-autoforum.ru  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mercedes-avangard.ru  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mercedes-irkutsk.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mercedes-izmaylovo.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mercedes-kama.ru/  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  http://www.mercedes-khabarovsk.ru</t>
-  </si>
-  <si>
-    <t>скидка</t>
-  </si>
-  <si>
-    <t>акция</t>
-  </si>
-  <si>
-    <t>подарок</t>
-  </si>
-  <si>
-    <t>специальная цена</t>
-  </si>
-  <si>
-    <t>Спецпредложения</t>
-  </si>
-  <si>
-    <t>уникальны</t>
-  </si>
-  <si>
-    <t>специальн предложен</t>
-  </si>
-  <si>
-    <t>выгод</t>
-  </si>
-  <si>
-    <t>эксклюзивн услови</t>
-  </si>
-  <si>
-    <t>преимуществ</t>
-  </si>
-  <si>
-    <t>уникальн цен</t>
-  </si>
-  <si>
-    <t>привлекательн услови</t>
-  </si>
-  <si>
-    <t>кампани</t>
-  </si>
-  <si>
-    <t>дари</t>
-  </si>
-  <si>
-    <t>предлага услуг</t>
-  </si>
-  <si>
-    <t>привилеги</t>
-  </si>
-  <si>
-    <t>рекордн услови</t>
-  </si>
-  <si>
-    <t>комплимент</t>
-  </si>
-  <si>
-    <t>услови</t>
-  </si>
-  <si>
-    <t>предложен ограничен</t>
-  </si>
-  <si>
-    <t>наш клиент</t>
-  </si>
-  <si>
-    <t>распродажа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">успей </t>
-  </si>
-  <si>
-    <t>сейчас или никогда</t>
-  </si>
-  <si>
-    <t>предложен дня</t>
-  </si>
-  <si>
-    <t>только сейчас</t>
-  </si>
-  <si>
-    <t>только сегодн</t>
-  </si>
-  <si>
-    <t>гарантия лучшей цены</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="B1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C30" sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,193 +357,89 @@
     <col min="1" max="1" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
